--- a/assets/ayat.xlsx
+++ b/assets/ayat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\rukiyah_and_ayat\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40733AD-A220-4A81-ACE7-69773AC65656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84C81F-CB1C-4CD0-8336-5798411A03AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{25B86EA1-75A8-406E-B40A-3066BC453D73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{25B86EA1-75A8-406E-B40A-3066BC453D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="502">
   <si>
     <t>الْحَمْدُ لِلَّهِ رَبِّ الْعَالَمِيـنَ (২) الرَّحْمَنِ الرَّحِيـمِ (৩) مَـالِكِ يَوْمِ الدِّيـنِ (৪) إِيَّاكَ نَعْبُدُ وَإِيَّاكَ نَسْتَعِيـنُ (৫) اهْدِنَا الصِّرَاطَ الْمُسْتَقِيـمَ (৬) صِرَاطَ الَّذِينَ أَنْعَمْتَ عَلَيْهِمْ غَيْرِ الْمَغْضُوبِ عَلَيْهِمْ وَلا الضَّـالِّيـنَ (৭)</t>
   </si>
@@ -360,6 +360,1188 @@
   </si>
   <si>
     <t>সুরা ফালাক:</t>
+  </si>
+  <si>
+    <t>সূরা ফাতিহা</t>
+  </si>
+  <si>
+    <t>بِسْمِ اللَّهِ الرَّحْمَنِ الرَّحِيمِ(1)الْحَمْدُ لِلَّهِ رَبِّ الْعَالَمِينَ(2)الرَّحْمَنِ الرَّحِيمِ(3)مَالِكِ يَوْمِ الدِّينِ(4)إِيَّاكَ نَعْبُدُ وَإِيَّاكَ نَسْتَعِينُ(5)اهْدِنَا الصِّرَاطَ الْمُسْتَقِيمَ(6)صِرَاطَ الَّذِينَ أَنْعَمْتَ عَلَيْهِمْ غَيْرِ الْمَغْضُوبِ عَلَيْهِمْ وَلاَالضَّالِّينَ(7)</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ ১-৫</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ: ৭</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ: ১৭-২০</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ: ৫০</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:৫৫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الم (1) ذَلِكَ الْكِتَابُ لَا رَيْبَ فِيهِ هُدًى لِلْمُتَّقِينَ (2) الَّذِينَ يُؤْمِنُونَ بِالْغَيْبِ وَيُقِيمُونَ الصَّلَاةَ وَمِمَّا رَزَقْنَاهُمْ يُنْفِقُونَ (3) وَالَّذِينَ يُؤْمِنُونَ بِمَا أُنْزِلَ إِلَيْكَ وَمَا أُنْزِلَ مِنْ قَبْلِكَ وَبِالْآخِرَةِ هُمْ يُوقِنُونَ (4) أُولَئِكَ عَلَى هُدًى مِنْ رَبِّهِمْ وَأُولَئِكَ هُمُ الْمُفْلِحُونَ (5) </t>
+  </si>
+  <si>
+    <t>خَتَمَ اللَّهُ عَلَى قُلُوبِهِمْ وَعَلَى سَمْعِهِمْ وَعَلَى أَبْصَارِهِمْ غِشَاوَةٌ وَلَهُمْ عَذَابٌ عَظِيمٌ(7)</t>
+  </si>
+  <si>
+    <t>مَثَلُهُمْ كَمَثَلِ الَّذِي اسْتَوْقَدَ نَارًا فَلَمَّا أَضَاءَ تْ مَا حَوْلَه ذَهَبَ اللَّهُ بِنُورِهِمْ وَتَرَكَهُمْ فِي ظُلُمَاتٍ لاَ يُبْصِرُونَ(17)صُمٌّ بُكْمٌ عُمْيٌ فَهُمْ لاَ يَرْجِعُونَ(18)أَوْ كَصَيِّبٍ مِنْ السَّمَاءِ فِيهِ ظُلُمَاتٌ وَرَعْدٌ وَبَرْقٌ يَجْعَلُونَ أَصَابِعَهُمْ فِي آذَانِهِمْ مِنْ الصَّوَاعِقِ حَذَرَ الْمَوْتِ وَاللَّهُ مُحِيطٌ بِالْكَافِرِينَ(19)يَكَادُ الْبَرْقُ يَخْطَفُ أَبْصَارَهُمْ كُلَّمَا أَضَاءَ لَهُمْ مَشَوْا فِيهِ وَإِذَ ا أَظْلَمَ عَلَيْهِمْ قَامُوا وَلَوْ شَاءَ اللَّهُ لَذَهَبَ بِسَمْعِهِمْ وَأَبْصَارِهِمْ إِنَّ اللَّهَ عَلَى كُلِّ شَيْءٍ قَدِيرٌ(20)</t>
+  </si>
+  <si>
+    <t>وَإِذْ فَرَقْنَا بِكُمْ الْبَحْرَ فَأَنْجَيْنَاكُمْ وَأَغْرَقْنَا آلَ فِرْعَوْنَ وَأَنْتُمْ تَنظُرُونَ(50)</t>
+  </si>
+  <si>
+    <t>وَإِذْ قُلْتُمْ يَامُوسَى لَنْ نُؤْمِنَ لَكَ حَتَّى نَرَى اللَّهَ جَهْرَةً فَأَخَذَتْكُمُ الصَّاعِقَةُ وَأَنْتُمْ تَنظُرُونَ(55)</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:৬০</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:৬৯</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ: ৭৬</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:১০৫</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ :১০৯</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:২৪৭</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:২৫৫</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ ২৬৯</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ:২৮৫-২৮৬</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান: ১৩-১৪</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান:২৬-২৭</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান:৩৩-৩৭</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান:১১৮-১২০</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান:১৪৩</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান: ১৬৯-১৭৪</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান: ১৮৬</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:২৭</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:৩২</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:৫৩-৫৪</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:৭৩</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:১০৮</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:১১৩</t>
+  </si>
+  <si>
+    <t>সূরা নিসা:১৪১</t>
+  </si>
+  <si>
+    <t>সূরা মায়িদাহ:৪৫</t>
+  </si>
+  <si>
+    <t>সূরা মায়িদাহ:৮৩</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:৩৩</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:৫৩</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:৯৩</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:১০৩</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:১১০</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:১৩৯</t>
+  </si>
+  <si>
+    <t>সূরা আন্আম:১৬৫</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:৪৩</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:১০৮</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:১১৬</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:১৭৯</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:১৯৮</t>
+  </si>
+  <si>
+    <t>সূরা আনফাল:৬</t>
+  </si>
+  <si>
+    <t>সূরা আনফাল:৪৪</t>
+  </si>
+  <si>
+    <t>সূরা আনফাল:৫৩</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা:৮</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা:৫০-৫১</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা:৫৫</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা: ৯২</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা:৯৮</t>
+  </si>
+  <si>
+    <t>সূরা তাওবা:১২৭-১২৯</t>
+  </si>
+  <si>
+    <t>সূরা ইউনুস:৪৩</t>
+  </si>
+  <si>
+    <t>সূরা ইউনুস:১০১</t>
+  </si>
+  <si>
+    <t>সূরা ইউনুস:১০৭</t>
+  </si>
+  <si>
+    <t>সূরা হুদ:৫</t>
+  </si>
+  <si>
+    <t>সূরা হুদ:৩১</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৪-৯</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ: ১৮</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:২১</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৩১</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৩৮</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৫৬</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৬৭-৬৯</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৭৭</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ: ৮৪</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৮৯-৯৩</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৯৯-১০০</t>
+  </si>
+  <si>
+    <t>সূরা ইউসুফ:৫</t>
+  </si>
+  <si>
+    <t>সূরা হিজর:৫২</t>
+  </si>
+  <si>
+    <t>সূরা হিজর:১৬-১৮</t>
+  </si>
+  <si>
+    <t>সূরা হিজর:৮৮</t>
+  </si>
+  <si>
+    <t>সূরা নাহাল:৬</t>
+  </si>
+  <si>
+    <t>সূরা নাহাল:১৮</t>
+  </si>
+  <si>
+    <t>সূরা নাহাল ৫৩</t>
+  </si>
+  <si>
+    <t>সূরা নাহাল:৭১</t>
+  </si>
+  <si>
+    <t>সূরা বনী ইসরাইল:২০-২১</t>
+  </si>
+  <si>
+    <t>সূরা বনী ইসরাইল:৭৬</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ:৫</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ:১৯</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ:২৮</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ: ৩৫</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ: ৪১</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ: ৪৬</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ: ৮২</t>
+  </si>
+  <si>
+    <t>সূরা কাহাফ: ৮৬</t>
+  </si>
+  <si>
+    <t>সূরা ত্বা-হা ৫৯</t>
+  </si>
+  <si>
+    <t>সূরা ত্বা-হা ৩১</t>
+  </si>
+  <si>
+    <t>সূরা আম্বিয়া ১৮</t>
+  </si>
+  <si>
+    <t>সূরা আম্বিয়া ৬১</t>
+  </si>
+  <si>
+    <t>সূরা আম্বিয়া ৯৭</t>
+  </si>
+  <si>
+    <t>সূরা আম্বিয়া ১১২</t>
+  </si>
+  <si>
+    <t>সূরা হাজ্জ্ব১৫</t>
+  </si>
+  <si>
+    <t>সূরা হাজ্জ্ব ৭২</t>
+  </si>
+  <si>
+    <t>সূরা মু'মিনুন ৯১</t>
+  </si>
+  <si>
+    <t>সূরা মু'মিনুন ৯৬</t>
+  </si>
+  <si>
+    <t>সূরা নূর ৩০-৩১</t>
+  </si>
+  <si>
+    <t>সূরা নূর ৩৮</t>
+  </si>
+  <si>
+    <t>সূরা ফুরক্বান ৪১</t>
+  </si>
+  <si>
+    <t>সূরা ফুরক্বান ৭৪</t>
+  </si>
+  <si>
+    <t>সূরা শুআরা ২১৮-২১৯</t>
+  </si>
+  <si>
+    <t>সূরা নামল ১০</t>
+  </si>
+  <si>
+    <t>সূরা নামল ১৬</t>
+  </si>
+  <si>
+    <t>সূরা নামল ১৯</t>
+  </si>
+  <si>
+    <t>সূরা নামল ২৩</t>
+  </si>
+  <si>
+    <t>সূরা নামল ২৭</t>
+  </si>
+  <si>
+    <t>সূরা নামল ৩৩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা নামল ৩৫ </t>
+  </si>
+  <si>
+    <t>সূরা নামল ৪০</t>
+  </si>
+  <si>
+    <t>সূরা নামল ৪৪</t>
+  </si>
+  <si>
+    <t>সূরা ক্বাসাস ১৩</t>
+  </si>
+  <si>
+    <t>সূরা ক্বাসাস ৬০</t>
+  </si>
+  <si>
+    <t>সূরা ক্বাসাস ৭৬</t>
+  </si>
+  <si>
+    <t>সূরা ক্বাসাস ৮৩</t>
+  </si>
+  <si>
+    <t>সূরা আহযাব ১৯</t>
+  </si>
+  <si>
+    <t>সূরা আহযাব ৫২</t>
+  </si>
+  <si>
+    <t>সূরা ইয়াসিন ৯</t>
+  </si>
+  <si>
+    <t>সূরা ইয়াসিন ৬৬</t>
+  </si>
+  <si>
+    <t>সূরা সাফফাত ১৯</t>
+  </si>
+  <si>
+    <t>সূরা সাফফাত ৪৬</t>
+  </si>
+  <si>
+    <t>সূরা সাফফাত ৫৭</t>
+  </si>
+  <si>
+    <t>সূরা সাফফাত ৮৮</t>
+  </si>
+  <si>
+    <t>সূরা সাফফাত ১৭৮-১৮০</t>
+  </si>
+  <si>
+    <t>সূরা যুমার ৬৮</t>
+  </si>
+  <si>
+    <t>সূরা আল মু'মিন ১৯</t>
+  </si>
+  <si>
+    <t>সূরা আল মু'মিন ২৫</t>
+  </si>
+  <si>
+    <t>সূরা শুরা ১২</t>
+  </si>
+  <si>
+    <t>সূরা শুরা ২৭</t>
+  </si>
+  <si>
+    <t>সূরা শুরা ৪৫</t>
+  </si>
+  <si>
+    <t>সূরা যুখরুফ ৩২</t>
+  </si>
+  <si>
+    <t>সূরা যুখরুফ ৭১</t>
+  </si>
+  <si>
+    <t>সূরা যুখরুফ ৮০</t>
+  </si>
+  <si>
+    <t>সূরা মুহাম্মদ ২০</t>
+  </si>
+  <si>
+    <t>সূরা মুহাম্মাদ ২৯-৩০</t>
+  </si>
+  <si>
+    <t>সূরা ফাত্হ ১৫</t>
+  </si>
+  <si>
+    <t>সূরা হুজরাত ১২</t>
+  </si>
+  <si>
+    <t>সূরা ক্বাফ ৬</t>
+  </si>
+  <si>
+    <t>সূরা ঝারিয়াত ৪৪</t>
+  </si>
+  <si>
+    <t>সূরা ত্বূর ৪৮</t>
+  </si>
+  <si>
+    <t>সূরা ক্বামার ৭</t>
+  </si>
+  <si>
+    <t>সূরা ক্বামার ১২</t>
+  </si>
+  <si>
+    <t>সূরা ক্বামার:৩৫</t>
+  </si>
+  <si>
+    <t>সূরা ক্বামার ৩৭</t>
+  </si>
+  <si>
+    <t>সূরা আর রাহমান ৩৭</t>
+  </si>
+  <si>
+    <t>সূরা আর রাহমান ৫০</t>
+  </si>
+  <si>
+    <t>সূরা আর রাহমান ৭০</t>
+  </si>
+  <si>
+    <t>সূরা ওয়াক্বিয়াহ ৮৩</t>
+  </si>
+  <si>
+    <t>সূরা হাদীদ ২০</t>
+  </si>
+  <si>
+    <t>সূরা হাদীদ ২৩</t>
+  </si>
+  <si>
+    <t>সূরা হাদীদ ২৯</t>
+  </si>
+  <si>
+    <t>সূরা হাশর ১০</t>
+  </si>
+  <si>
+    <t>সূরা হাশর ১৮</t>
+  </si>
+  <si>
+    <t>সূরা মুমতাহিনা ২</t>
+  </si>
+  <si>
+    <t>সূরা মুনাফিকুন ৪</t>
+  </si>
+  <si>
+    <t>সূরা মূলক ৩-৪</t>
+  </si>
+  <si>
+    <t>সূরা মূলক ২৭</t>
+  </si>
+  <si>
+    <t>সূরা ক্বলম ১২</t>
+  </si>
+  <si>
+    <t>সূরা ক্বলম ২৭</t>
+  </si>
+  <si>
+    <t>সূরা ক্বলম ৪৯-৫২</t>
+  </si>
+  <si>
+    <t>সূরা মুদ্দাছ্ছির ২১-২২</t>
+  </si>
+  <si>
+    <t>সূরা ক্বিয়ামাহ ২২-২৫</t>
+  </si>
+  <si>
+    <t>সূরা নাবা ৪০</t>
+  </si>
+  <si>
+    <t>সূরা দাহর ১৯</t>
+  </si>
+  <si>
+    <t>সূরা নাযিআত ৪৬</t>
+  </si>
+  <si>
+    <t>সূরা আবাসা ২৪</t>
+  </si>
+  <si>
+    <t>সূরা ইনশিক্বাক্ব ৯</t>
+  </si>
+  <si>
+    <t>সূরা ইনশিক্বাক্ব ১৩</t>
+  </si>
+  <si>
+    <t>সূরা গাশিয়াহ ১২</t>
+  </si>
+  <si>
+    <t>সূরা আল ফজর ১৫-১৬</t>
+  </si>
+  <si>
+    <t>সূরা আল বালাদ ৭-৯</t>
+  </si>
+  <si>
+    <t>সূরা আশ শামস ৭-১০</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা দূহা </t>
+  </si>
+  <si>
+    <t>সূরা হুমাযাহ ১</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা কাউসার </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা নাসর </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা লাহাব </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা ইখলাস </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা ফালাক </t>
+  </si>
+  <si>
+    <t>সূরা নাস</t>
+  </si>
+  <si>
+    <t>وَإِذْ اسْتَسْقَى مُوسَى لِقَوْمِهِ فَقُلْنَا اضْرِبْ بِعَصَاكَ الْحَجَرَ فَانفَجَرَتْ مِنْهُ اثْنَتَا عَشْرَةَ عَيْنًا قَدْ عَلِمَ كُلُّ أُنَاسٍ مَشْرَبَهُمْ كُلُوا وَاشْرَبُوا مِنْ رِزْقِ اللَّهِ وَلاَ تَعْثَوْا فِي الأَرْضِ مُفْسِدِينَ(60)</t>
+  </si>
+  <si>
+    <t>قَالُوا ادْعُ لَنَا رَبَّكَ يُبَيِّنْ لَنَا مَا لَوْنُهَا قَالَ إِنَّهُ يَقُولُ إِنَّهَا بَقَرَةٌ صَفْرَاءُ فَاقِعٌ لَوْنُهَا تَسُرُّ النَّاظِرِينَ(69)</t>
+  </si>
+  <si>
+    <t>وَإِذَا لَقُوا الَّذِينَ آمَنُوا قَالُوا آمَنَّا وَإِذَ ا خَلاَ بَعْضُهُمْ إِلَى بَعْضٍ قَالُوا أَتُحَدِّثُونَهُمْ بِمَا فَتَحَ اللَّهُ عَلَيْكُمْ لِيُحَآجُّوكُمْ بِهِ عِنْدَ رَبِّكُمْ أَفَلاَ تَعْقِلُونَ(76)</t>
+  </si>
+  <si>
+    <t>مَا يَوَدُّ الَّذِينَ كَفَرُوا مِنْ أَهْلِ الْكِتَابِ وَلاَ الْمُشْرِكِينَ أَنْ يُنَزَّلَ عَلَيْكُمْ مِنْ خَيْرٍ مِنْ رَبِّكُمْ وَاللَّهُ يَخْتَصُّ بِرَحْمَتِهِ مَنْ يَشَاءُ وَاللَّهُ ذُو الْفَضْلِ الْعَظِيمِ(105)</t>
+  </si>
+  <si>
+    <t>وَدَّ كَثِيرٌ مِنْ أَهْلِ الْكِتَابِ لَوْ يَرُدُّونَكُمْ مِنْ بَعْدِ إِيمَانِكُمْ كُفَّارً  حَسَدًا مِنْ عِنْدِ أَنفُسِهِمْ مِنْ بَعْدِ مَا تَبَيَّنَ لَهُمْ الْحَقُّ فَاعْفُوا وَاصْفَحُوا حَتَّى يَأْتِيَ اللَّهُ بِأَمْرِهِ إِنَّ اللَّهَ عَلَى كُلِّ شَيْءٍ قَدِيرٌ(109)</t>
+  </si>
+  <si>
+    <t>وَقَالَ لَهُمْ نَبِيُّهُمْ إِنَّ اللَّهَ قَدْ بَعَثَ لَكُمْ طَالُوتَ مَلِكًا قَالُوا أَنَّى يَكُونُ لَهُ الْمُلْكُ عَلَيْنَا وَنَحْنُ أَحَقُّ بِالْمُلْكِ مِنْهُ وَلَمْ يُؤْتَ سَعَةً مِنْ الْمَالِ قَالَ إِنَّ اللَّهَ اصْطَفَاهُ عَلَيْكُمْ وَزَادَهُ بَسْطَةً فِي الْعِلْمِ وَالْجِسْمِ وَاللَّهُ يُؤْتِي مُلْكَهُ مَنْ يَشَاءُ وَاللَّهُ وَاسِعٌ عَلِيمٌ(247)</t>
+  </si>
+  <si>
+    <t>اللَّهُ لاَ إِلَهَ إِلاّ هُوَ الْحَيُّ الْقَيُّومُ لاَ تَأْخُذُهُ سِنَةٌ وَلاَ نَوْمٌ لَهُ مَا فِي السَّمَاوَاتِ وَمَا فِي الأَرْضِ مَنْ ذَ ا الَّذِي يَشْفَعُ عِنْدَهُ إِلاّ بِإِذْنِهِ يَعْلَمُ مَا بَيْنَ أَيْدِيهِمْ وَمَا خَلْفَهُمْ وَلاَ يُحِيطُونَ بِشَيْءٍ مِنْ عِلْمِهِ إِلاّ بِمَا شَاءَ وَسِعَ كُرْسِيُّهُ السَّمَاوَاتِ وَالأَرْضَ وَلاَ يَئُودُهُ حِفْظُهُمَا وَهُوَ الْعَلِيُّ الْعَظِيمُ(255)</t>
+  </si>
+  <si>
+    <t>يُؤْتِ الْحِكْمَةَ مَنْ يَشَاءُ وَمَنْ يُؤْتَ الْحِكْمَةَ فَقَدْ أُوتِيَ خَيْرًا كَثِيرًا وَمَا يَذَّكَّرُ إِلاّ أُوْلُوا الأَلْبَابِ(269)</t>
+  </si>
+  <si>
+    <t>آمَنَ الرَّسُولُ بِمَا أُنزِلَ إِلَيْهِ مِنْ رَبِّهِ وَالْمُؤْمِنُونَ كُلٌّ آمَنَ بِاللَّهِ وَمَلآئِكَتِهِ وَكُتُبِهِ وَرُسُلِهِ لاَ نُفَرِّقُ بَيْنَ أَحَدٍ مِنْ رُسُلِهِ وَقَالُوا سَمِعْنَا وَأَطَعْنَا غُفْرَانَكَ رَبَّنَا وَإِلَيْكَ الْمَصِيرُ(285)لاَ يُكَلِّفُ اللَّهُ نَفْسًا إِلاّ وُسْعَهَا لَهَا مَا كَسَبَتْ وَعَلَيْهَا مَا اكْتَسَبَتْ رَبَّنَا لاَ تُؤَاخِذْنَا إِنْ نَسِينَا أَوْ أَخْطَأْنَا رَبَّنَا وَلاَ تَحْمِلْ عَلَيْنَا إِصْرًا كَمَا حَمَلْتَهُ عَلَى الَّذِينَ مِنْ قَبْلِنَا رَبَّنَا وَلاَ تُحَمِّلْنَا مَا لاَ طَاقَةَ لَنَا بِهِ وَاعْفُ عَنَّا وَاغْفِرْ لَنَا وَارْحَمْنَا أَنْتَ مَوْلاَنَا فَانصُرْنَا عَلَى الْقَوْمِ الْكَافِرِينَ (286)</t>
+  </si>
+  <si>
+    <t>قَدْ كَانَ لَكُمْ آيَةٌ فِي فِئَتَيْنِ الْتَقَتَا فِئَةٌ تُقَاتِلُ فِي سَبِيلِ اللَّهِ وَأُخْرَى كَافِرَةٌ يَرَوْنَهُمْ مِثْلَيْهِمْ رَأْيَ الْعَيْنِ وَاللَّهُ يُؤَيِّدُ بِنَصْرِهِ مَنْ يَشَاءُ إِنَّ فِي ذَلِكَ لَعِبْرَةً لأوْلِي الأَبْصَارِ(13) زُيِّنَ لِلنَّاسِ حُبُّ الشَّهَوَاتِ مِنْ النِّسَاءِ وَالْبَنِـينَ وَالْقَنَاطِيرِ الْمُقَنْطَرَةِ مِنْ الذَّهَبِ وَالْفِضَّةِ وَالْخَيْلِ الْمُسَوَّمَةِ وَالأَنْعَامِ وَالْحَرْثِ ذَلِكَ مَتَاعُ الْحَيَاةِ الدُّنْيَا وَاللَّهُ عِنْدَهُ حُسْنُ الْمَآبِ(14)</t>
+  </si>
+  <si>
+    <t>قُلْ اللَّهُمَّ مَالِكَ الْمُلْكِ تُؤْتِي الْمُلْكَ مَنْ تَشَاءُ وَتَنْزِعُ الْمُلْكَ مِمَّنْ تَشَاءُ وَتُعِزُّ مَنْ تَشَاءُ وَتُذِلُّ مَنْ تَشَاءُ بِيَدِكَ الْخَيْرُ إِنَّكَ عَلَى كُلِّ شَيْءٍ قَدِيرٌ(26)تُولِجُ اللَّيْلَ فِي النَّهَارِ وَتُولِجُ النَّهَارَ فِي اللَّيْلِ وَتُخْرِجُ الْحَيَّ مِنْ الْمَيِّتِ وَتُخْرِجُ الْمَيِّتَ مِنْ الْحَيِّ وَتَرْزُقُ مَنْ تَشَاءُ بِغَيْرِ حِسَابٍ(27)</t>
+  </si>
+  <si>
+    <t>إِنَّ اللَّهَ اصْطَفَى آدَمَ وَنُوحًا وَآلَ إِبْرَاهِيمَ وَآلَ عِمْرَانَ عَلَى الْعَالَمِينَ(33)ذُرِّيَّةً بَعْضُهَا مِنْ بَعْضٍ وَاللَّهُ سَمِيعٌ عَلِيمٌ(34)إِذْ قَالَتْ امْرَأَةُ عِمْرَانَ رَبِّ إِنِّي نَذَرْتُ لَكَ مَا فِي بَطْنِي مُحَرَّرًا فَتَقَبَّلْ مِنِّي إِنَّكَ أَنْتَ السَّمِيعُ الْعَلِيمُ(35)فَلَمَّا وَضَعَتْهَا قَالَتْ رَبِّ إِنِّي وَضَعْتُهَا أُنْثَى وَاللَّهُ أَعْلَمُ بِمَا وَضَعَتْ وَلَيْسَ الذَّكَرُ كَالأُنْثَى وَإِنِّي سَمَّيْتُهَا مَرْيَمَ وَإِنِّي أُعِيذُهَا بِكَ وَذُرِّيَّتَهَا مِنْ الشَّيْطَانِ الرَّجِيمِ(36) فَتَقَبَّلَهَا رَبُّهَا بِقَبُولٍ حَسَنٍ وَأَنْبَتَهَا نَبَاتًا حَسَنًا وَكَفَّلَهَا زَكَرِيَّا كُلَّمَا دَخَلَ عَلَيْهَازَكَرِيَّا الْمِحْرَابَ وَجَدَ عِنْدَهَا رِزْقًا قَالَ يَامَرْيَمُ أَنَّى لَكِ هَذَا قَالَتْ هُوَ مِنْ عِنْدِ اللَّهِ إِنَّ اللَّهَ يَرْزُقُ مَنْ يَشَاءُ بِغَيْرِ حِسَابٍ(37)</t>
+  </si>
+  <si>
+    <t>يَاأَيُّهَا الَّذِينَ آمَنُوا لاَ تَتَّخِذُوا بِطَانَةً مِنْ دُونِكُمْ لاَ يَأْلُونَكُمْ خَبَالاً وَدُّوا مَا عَنِتُّمْ قَدْ بَدَتْ الْبَغْضَاءُ مِنْ أَفْوَاهِهِمْ وَمَا تُخْفِي صُدُورُهُمْ أَكْبَرُ قَدْ بَيَّنَّا لَكُمْ الآيَاتِ إِنْ كُنْتُمْ تَعْقِلُونَ(118)هَاأَنْتُمْ أُوْلآءِ تُحِبُّونَهُمْ وَلاَ يُحِبُّونَكُمْ وَتُؤْمِنُونَ بِالْكِتَابِ كُلِّهِ وَإِذَ ا لَقُوكُمْ قَالُوا آمَنَّا وَإِذَ ا خَلَوْا عَضُّوا عَلَيْكُمْ الأَنَامِلَ مِنْ الغَيْظِ قُلْ مُوتُوا بِغَيْظِكُمْ إِنَّ اللَّهَ عَلِيمٌ بِذَاتِ الصُّدُورِ(119) إِنْ تَمْسَسْكُمْ حَسَنَةٌ تَسُؤْهُمْ وَإِنْ تُصِبْكُمْ سَيِّئَةٌ يَفْرَحُوا بِهَا وَإِنْ تَصْبِرُوا وَتَتَّقُوا لاَ يَضُرُّكُمْ كَيْدُهُمْ شَيْئًا إِنَّ اللَّهَ بِمَا يَعْمَلُونَ مُحِيطٌ(120)</t>
+  </si>
+  <si>
+    <t>وَلَقَدْ كُنْتُمْ تَتَمَنَّوْن الْمَوْتَ مِنْ قَبْلِ أَنْ تَلْقَوْهُ فَقَدْ رَأَيْتُمُوهُ وَأَنْتُمْ تَنْظُرُونَ(143)</t>
+  </si>
+  <si>
+    <t>وَلاَ تَحْسَبَنَّ الَّذِينَ قُتِلُوا فِي سَبِيلِ اللَّهِ أَمْوَاتًا بَلْ أَحْيَاءٌ عِنْدَ رَبِّهِمْ يُرْزَقُونَ(169)فَرِحِينَ بِمَا آتَاهُمْ اللَّهُ مِنْ فَضْلِهِ وَيَسْتَبْشِرُونَ بِالَّذِينَ لَمْ يَلْحَقُوا بِهِمْ مِنْ خَلْفِهِمْ أَلاّخَوْفٌ عَلَيْهِمْ وَلاَ هُمْ يَحْزَنُونَ(170)يَسْتَبْشِرُونَ بِنِعْمَةٍ مِنْ اللَّهِ وَفَضْلٍ وَأَنَّ اللَّهَ لاَ يُضِيعُ أَجْرَ الْمُؤْمِنِينَ(171)الَّذِينَ اسْتَجَابُوا لِلَّهِ وَالرَّسُولِ مِنْ بَعْدِ مَا أَصَابَهُمْ الْقَرْحُ لِلَّذِينَ أَحْسَنُوا مِنْهُمْ وَاتَّقَوْا أَجْرٌ عَظِيمٌ(172) الَّذِينَ قَالَ لَهُمْ النَّاسُ إِنَّ النَّاسَ قَدْ جَمَعُوا لَكُمْ فَاخْشَوْهُمْ فَزَادَهُمْ إِيمَانًا وَقَالُوا حَسْبُنَا اللَّهُ وَنِعْمَ الْوَكِيلُ(173)فَانْقَلَبُوا بِنِعْمَةٍ مِنْ اللَّهِ وَفَضْلٍ لَمْ يَمْسَسْهُمْ سُوءٌ وَاتَّبَعُوا رِضْوَانَ اللَّهِ وَاللَّهُ ذُو فَضْلٍ عَظِيمٍ(174)</t>
+  </si>
+  <si>
+    <t>لَتُبْلَوُنَّ فِي أَمْوَالِكُمْ وَأَنْفُسِكُمْ وَلَتَسْمَعُنَّ مِنْ الَّذِينَ أُوتُوا الْكِتَابَ مِنْ قَبْلِكُمْ وَمِنْ الَّذِينَ أَشْرَكُوا أَذًى كَثِيرًا وَإِنْ تَصْبِرُوا وَتَتَّقُوا فَإِنَّ ذَلِكَ مِنْ عَزْمِ الأًمُورِ(186)</t>
+  </si>
+  <si>
+    <t>وَاللَّهُ يُرِيدُ أَنْ يَتُوبَ عَلَيْكُمْ وَيُرِيدُ الَّذِينَ يَتَّبِعُونَ الشَّهَوَاتِ أَنْ تَمِيلُوا مَيْلاّ عَظِيمًا(27)</t>
+  </si>
+  <si>
+    <t>وَلاَ تَتَمَنَّوْا مَا فَضَّلَ اللَّهُ بِهِ بَعْضَكُمْ عَلَى بَعْضٍ لِلرِّجَالِ نَصِيبٌ مِمَّا اكْتَسَبُوا وَلِلنِّسَاءِ نَصِيبٌ مِمَّا اكْتَسَبْنَ وَاسْأَلُوا اللَّهَ مِنْ فَضْلِهِ إِنَّ اللَّهَ كَانَ بِكُلِّ شَيْءٍ عَلِيمًا(32)</t>
+  </si>
+  <si>
+    <t>وَلَئِنْ أَصَابَكُمْ فَضْلٌ مِنَ اللَّهِ لَيَقُولَنَّ كَأَنْ لَمْ تَكُنْ بَيْنَكُمْ وَبَيْنَهُ مَوَدَّةٌ يَالَيْتَنِي كُنتُ مَعَهُمْ فَأَفُوزَ فَوْزًا عَظِيمًا(73)</t>
+  </si>
+  <si>
+    <t>يَسْتَخْفُونَ مِنْ النَّاسِ وَلاَ يَسْتَخْفُونَ مِنْ اللَّهِ وَهُوَ مَعَهُمْ إِذْ يُبَيِّتُونَ مَا لاَ يَرْضَى مِنْ الْقَوْلِ وَكَانَ اللَّهُ بِمَا يَعْمَلُونَ مُحِيطًا(108)</t>
+  </si>
+  <si>
+    <t>وَلَوْلاَ فَضْلُ اللَّهِ عَلَيْكَ وَرَحْمَتُهُ لَهَمَّتْ طَائِفَةٌ مِنْهُمْ أَنْ يُضِلُّوكَ وَمَا يُضِلُّونَ إِلاّ أَنفُسَهُمْ وَمَا يَضُرُّونَكَ مِنْ شَيْءٍ وَأَنزَلَ اللَّهُ عَلَيْكَ الْكِتَابَ وَالْحِكْمَةَ وَعَلَّمَكَ مَا لَمْ تَكُنْ تَعْلَمُ وَكَانَ فَضْلُ اللَّهِ عَلَيْكَ عَظِيمًا(113)</t>
+  </si>
+  <si>
+    <t>الَّذِينَ يَتَرَبَّصُونَ بِكُمْ فَإِنْ كَانَ لَكُمْ فَتْحٌ مِنْ اللَّهِ قَالُوا أَلَمْ نَكُنْ مَعَكُمْ وَإِنْ كَانَ لِلْكَافِرِينَ نَصِيبٌ قَالُوا أَلَمْ نَسْتَحْوِذْ عَلَيْكُمْ وَنَمْنَعْكُمْ مِنْ الْمُؤْمِنِينَ فَاللَّهُ يَحْكُمُ بَيْنَكُمْ يَوْمَ الْقِيَامَةِ وَلَنْ يَجْعَلَ اللَّهُ لِلْكَافِرِينَ عَلَى الْمُؤْمِنِينَ سَبِيلاّ(141)</t>
+  </si>
+  <si>
+    <t>وَكَتَبْنَا عَلَيْهِمْ فِيهَا أَنَّ النَّفْسَ بِالنَّفْسِ وَالْعَيْنَ بِالْعَيْنِ وَالأَنفَ بِالأَنفِ وَالأُذُنَ بِالأُذُنِ وَالسِّنَّ بِالسِّنِّ وَالْجُرُوحَ قِصَاصٌ فَمَنْ تَصَدَّقَ بِهِ فَهُوَ كَفَّارَةٌ لَهُ وَمَنْ لَمْ يَحْكُمْ بِمَا أَنزَلَ اللَّهُ فَأُوْلَئِكَ هُمْ الظَّالِمُونَ(45)</t>
+  </si>
+  <si>
+    <t>وَإِذَا سَمِعُوا مَا أُنزِلَ إِلَى الرَّسُولِ تَرَى أَعْيُنَهُمْ تَفِيضُ مِنْ الدَّمْعِ مِمَّا عَرَفُوا مِنْ الْحَقِّ يَقُولُونَ رَبَّنَا آمَنَّا فَاكْتُبْنَا مَعَ الشَّاهِدِينَ(83)</t>
+  </si>
+  <si>
+    <t>قَدْ نَعْلَمُ إِنَّهُ لَيَحْزُنُكَ الَّذِي يَقُولُونَ فَإِنَّهُمْ لاَ يُكَذِّبُونَكَ وَلَكِنَّ الظَّالِمِينَ بِآيَاتِ اللَّهِ يَجْحَدُونَ(33)</t>
+  </si>
+  <si>
+    <t>وَكَذَلِكَ فَتَنَّا بَعْضَهُمْ بِبَعْضٍ لِيَقُولُوا أَهَؤُلآءِ مَنَّ اللَّهُ عَلَيْهِمْ مِنْ بَيْنِنَا أَلَيْسَ اللَّهُ بِأَعْلَمَ بِالشَّاكِرِينَ(53)</t>
+  </si>
+  <si>
+    <t>وَلَوْ تَرَى إِذِ الظَّالِمُونَ فِي غَمَرَاتِ الْمَوْتِ وَالْمَلآئِكَةُ بَاسِطُواْ أَيْدِيهِمْ أَخْرِجُواْ أَنفُسَكُمُ الْيَوْمَ تُجْزَوْنَ عَذَابَ الْهُونِ بِمَا كُنتُمْ تَقُولُونَ عَلَى اللّهِ غَيْرَ الْحَقِّ وَكُنتُمْ عَنْ آيَاتِهِ تَسْتَكْبِرُونَ (93)</t>
+  </si>
+  <si>
+    <t>وَنُقَلِّبُ أَفْئِدَتَهُمْ وَأَبْصَارَهُمْ كَمَا لَمْ يُؤْمِنُوا بِهِ أَوَّلَ مَرَّةٍ وَنَذَرُهُمْ فِي طُغْيَانِهِمْ يَعْمَهُونَ(110)</t>
+  </si>
+  <si>
+    <t>وَقَالُوا مَا فِي بُطُونِ هَذِهِ الأنْعَامِ خَالِصَةٌ لِذُكُورِنَا وَمُحَرَّمٌ عَلَى أَزْوَاجِنَا وَإِنْ يَكُنْ مَيْتَةً فَهُمْ فِيهِ شُرَكَاءُ سَيَجْزِيهِمْ وَصْفَهُمْ إِنَّهُ حَكِيمٌ عَلِيمٌ(139)</t>
+  </si>
+  <si>
+    <t>وَهُوَ الَّذِي جَعَلَكُمْ خَلآئِفَ الأَرْضِ وَرَفَعَ بَعْضَكُمْ فَوْقَ بَعْضٍ دَرَجَاتٍ لِيَبْلُوَكُمْ فِي مَا آتَاكُمْ إِنَّ رَبَّكَ سَرِيعُ الْعِقَابِ وَإِنَّهُ لَغَفُورٌ رَحِيمٌ(165)</t>
+  </si>
+  <si>
+    <t>وَنَزَعْنَا مَا فِي صُدُورِهِمْ مِنْ غِلٍّ تَجْرِي مِنْ تَحْتِهِمْ الأَنْهَارُ وَقَالُوا الْحَمْدُ لِلَّهِ الَّذِي هَدَانَا لِهَذَا وَمَا كُنَّا لِنَهْتَدِيَ لَوْلاَ أَنْ هَدَانَا اللَّهُ لَقَدْ جَاءَتْ رُسُلُ رَبِّنَا بِالْحَقِّ وَنُودُوا أَنْ تِلْكُمْ الْجَنَّةُ أُورِثْتُمُوهَا بِمَا كُنتُمْ تَعْمَلُونَ(43)</t>
+  </si>
+  <si>
+    <t>وَنَزَعَ يَدَهُ فَإِذَا هِيَ بَيْضَاءُ لِلنَّاظِرِينَ(108)</t>
+  </si>
+  <si>
+    <t>قَالَ أَلْقُوا فَلَمَّا أَلْقَوْا سَحَرُوا أَعْيُنَ النَّاسِ وَاسْتَرْهَبُوهُمْ وَجَاءُوا بِسِحْرٍ عَظِيمٍ(116)</t>
+  </si>
+  <si>
+    <t>وَلَقَدْ ذَرَأْنَا لِجَهَنَّمَ كَثِيرًا مِنْ الْجِنِّ وَالإِنسِ لَهُمْ قُلُوبٌ لاَ يَفْقَهُونَ بِهَا وَلَهُمْ أَعْيُنٌ لاَ يُبْصِرُونَ بِهَا وَلَهُمْ آذَانٌ لاَ يَسْمَعُونَ بِهَا أُوْلَئِكَ كَالأَنْعَامِ بَلْ هُمْ أَضَلُّ أُوْلَئِكَ هُمْ الْغَافِلُونَ(179)</t>
+  </si>
+  <si>
+    <t>أَلَهُمْ أَرْجُلٌ يَمْشُونَ بِهَا أَمْ لَهُمْ أَيْدٍ يَبْطِشُونَ بِهَا أَمْ لَهُمْ أَعْيُنٌ يُبْصِرُونَ بِهَا أَمْ لَهُمْ آذَانٌ يَسْمَعُونَ بِهَا قُلْ ادْعُوا شُرَكَاءَكُمْ ثُمَّ كِيدُونِي فَلاَ تُنظِرُونِ(195)</t>
+  </si>
+  <si>
+    <t>وَإِنْ تَدْعُوهُمْ إِلَى الْهُدَى لاَ يَسْمَعُوا وَتَرَاهُمْ يَنظُرُونَ إِلَيْكَ وَهُمْ لاَ يُبْصِرُونَ(198)</t>
+  </si>
+  <si>
+    <t>يُجَادِلُونَكَ فِي الْحَقِّ بَعْدَ مَا تَبَيَّنَ كَأَنَّمَا يُسَاقُونَ إِلَى الْمَوْتِ وَهُمْ يَنظُرُونَ(6)</t>
+  </si>
+  <si>
+    <t>وَإِذْ يُرِيكُمُوهُمْ إِذْ الْتَقَيْتُمْ فِي أَعْيُنِكُمْ قَلِيلاً وَيُقَلِّلُكُمْ فِي أَعْيُنِهِمْ لِيَقْضِيَ اللَّهُ أَمْرًا كَانَ مَفْعُولاً وَإِلَى اللَّهِ تُرْجَعُ الأمُورُ(44)</t>
+  </si>
+  <si>
+    <t>ذَلِكَ بِأَنَّ اللّهَ لَمْ يَكُ مُغَيِّرًا نِّعْمَةً أَنْعَمَهَا عَلَى قَوْمٍ حَتَّى يُغَيِّرُواْ مَا بِأَنفُسِهِمْ وَأَنَّ اللّهَ سَمِيعٌ عَلِيمٌ} (53)</t>
+  </si>
+  <si>
+    <t>كَيْفَ وَإِنْ يَظْهَرُوا عَلَيْكُمْ لاَ يَرْقُبُوا فِيكُمْ إِلاّ وَلاَ ذِمَّةً يُرْضُونَكُمْ بِأَفْوَاهِهِمْ وَتَأْبَى قُلُوبُهُمْ وَأَكْثَرُهُمْ فَاسِقُونَ(8)</t>
+  </si>
+  <si>
+    <t>إِنْ تُصِبْكَ حَسَنَةٌ تَسُؤْهُمْ وَإِنْ تُصِبْكَ مُصِيبَةٌ يَقُولُوا قَدْ أَخَذْنَا أَمْرَنَا مِنْ قَبْلُ وَيَتَوَلَّوا وَهُمْ فَرِحُونَ(50)قُلْ لَنْ يُصِيبَنَا إِلاّ مَا كَتَبَ اللَّهُ لَنَا هُوَ مَوْلاَنَا وَعَلَى اللَّهِ فَلْيَتَوَكَّلْ الْمُؤْمِنُونَ(51)</t>
+  </si>
+  <si>
+    <t>وَلاَ عَلَى الَّذِينَ إِذَا مَا أَتَوْكَ لِتَحْمِلَهُمْ قُلْتَ لاَ أَجِدُ مَا أَحْمِلُكُمْ عَلَيْهِ تَوَلَّوا وَأَعْيُنُهُمْ تَفِيضُ مِنْ الدَّمْعِ حَزَنًا أَلاّ يَجِدُوا مَا يُنفِقُونَ(92)</t>
+  </si>
+  <si>
+    <t>وَمِنْ الأَعْرَابِ مَنْ يَتَّخِذُ مَا يُنفِقُ مَغْرَمًا وَيَتَرَبَّصُ بِكُمْ الدَّوَائِرَ عَلَيْهِمْ دَائِرَةُ السَّوْءِ وَاللَّهُ سَمِيعٌ عَلِيمٌ(98)</t>
+  </si>
+  <si>
+    <t>وَإِذَا مَا أُنزِلَتْ سُورَةٌ نَظَرَ بَعْضُهُمْ إِلَى بَعْضٍ هَلْ يَرَاكُمْ مِنْ أَحَدٍ ثُمَّ انصَرَفُوا صَرَفَ اللَّهُ قُلُوبَهُمْ بِأَنَّهُمْ قَوْمٌ لَا يَفْقَهُونَ (127) لَقَدْ جَاءَكُمْ رَسُولٌ مِنْ أَنفُسِكُمْ عَزِيزٌ عَلَيْهِ مَا عَنِتُّمْ حَرِيصٌ عَلَيْكُمْ بِالْمُؤْمِنِينَ رَءُوفٌ رَحِيمٌ(128)فَإِنْ تَوَلَّوْا فَقُلْ حَسْبِي اللَّهُ لاَ إِلَهَ إِلآّ هُوَ عَلَيْهِ تَوَكَّلْتُ وَهُوَ رَبُّ الْعَرْشِ الْعَظِيمِ(129)</t>
+  </si>
+  <si>
+    <t>وَمِنْهُمْ مَنْ يَنْظُرُ إِلَيْكَ أَفَأَنْتَ تَهْدِي الْعُمْيَ وَلَوْ كَانُوا لاَ يُبْصِرُونَ(43)</t>
+  </si>
+  <si>
+    <t>قُلْ انْظُرُوا مَاذَا فِي السَّمَاوَاتِ وَالْأَرْضِ وَمَا تُغْنِي الْآيَاتُ وَالنُّذُرُ عَنْ قَوْمٍ لَا يُؤْمِنُونَ(101)</t>
+  </si>
+  <si>
+    <t>وَإِنْ يَمْسَسْكَ اللَّهُ بِضُرٍّ فَلاَ كَاشِفَ لَهُ إِلاّ هُوَ وَإِنْ يُرِدْكَ بِخَيْرٍ فَلاَ رَادَّ لِفَضْلِهِ يُصِيبُ بِهِ مَنْ يَشَاءُ مِنْ عِبَادِهِ وَهُوَ الْغَفُورُ الرَّحِيمُ(107)</t>
+  </si>
+  <si>
+    <t>أَلاَ إِنَّهُمْ يَثْنُونَ صُدُورَهُمْ لِيَسْتَخْفُوا مِنْهُ أَلاَحِينَ يَسْتَغْشُونَ ثِيَابَهُمْ يَعْلَمُ مَا يُسِرُّونَ وَمَا يُعْلِنُونَ إِنَّهُ عَلِيمٌ بِذَاتِ الصُّدُورِ(5)</t>
+  </si>
+  <si>
+    <t>وَلاَ أَقُولُ لَكُمْ عِندِي خَزَائِنُ اللَّهِ وَلاَ أَعْلَمُ الْغَيْبَ وَلاَ أَقُولُ إِنِّي مَلَكٌ وَلاَ أَقُولُ لِلَّذِينَ تَزْدَرِي أَعْيُنُكُمْ لَنْ يُؤْتِيَهُمْ اللَّهُ خَيْرًا اللَّهُ أَعْلَمُ بِمَا فِي أَنفُسِهِمْ إِنِّي إِذًا لَمِنْ الظَّالِمِينَ(31)</t>
+  </si>
+  <si>
+    <t>إِذْ قَالَ يُوسُفُ لأَبِيهِ يَاأَبَتِ إِنِّي رَأَيْتُ أَحَدَ عَشَرَ كَوْكَبًا وَالشَّمْسَ وَالْقَمَرَ رَأَيْتُهُمْ لِي سَاجِدِينَ(4) قَالَ يَابُنَيَّ لاَ تَقْصُصْ رُؤْيَاكَ عَلَى إِخْوَتِكَ فَيَكِيدُوا لَكَ كَيْدًا إِنَّ الشَّيْطَانَ لِلإِنسَانِ عَدُوٌّ مُبِينٌ(5)وَكَذَلِكَ يَجْتَبِيكَ رَبُّكَ وَيُعَلِّمُكَ مِنْ تَأْوِيلِ الأَحَادِيثِ وَيُتِمُّ نِعْمَتَهُ عَلَيْكَ وَعَلَى آلِ يَعْقُوبَ كَمَا أَتَمَّهَا عَلَى أَبَوَيْكَ مِنْ قَبْلُ إِبْرَاهِيمَ وَإِسْحَاقَ إِنَّ رَبَّكَ عَلِيمٌ حَكِيمٌ(6)لَقَدْ كَانَ فِي يُوسُفَ وَإِخْوَتِهِ آيَاتٌ لِلسَّائِلِينَ(7)إِذْ قَالُوا لَيُوسُفُ وَأَخُوهُ أَحَبُّ إِلَى أَبِينَا مِنَّا وَنَحْنُ عُصْبَةٌ إِنَّ أَبَانَا لَفِي ضَلاَلٍ مُبِينٍ(8) اقْتُلُوا يُوسُفَ أَوْ اطْرَحُوهُ أَرْضًا يَخْلُ لَكُمْ وَجْهُ أَبِيكُمْ وَتَكُونُوا مِنْ بَعْدِهِ قَوْمًا صَالِحِينَ(9)</t>
+  </si>
+  <si>
+    <t>وَجَاءُوا عَلَى قَمِيصِهِ بِدَمٍ كَذِبٍ قَالَ بَلْ سَوَّلَتْ لَكُمْ أَنفُسُكُمْ أَمْرًا فَصَبْرٌ جَمِيلٌ وَاللَّهُ الْمُسْتَعَانُ عَلَى مَا تَصِفُونَ(18)</t>
+  </si>
+  <si>
+    <t>وَقَالَ الَّذِي اشْتَرَاهُ مِنْ مِصْرَ لإمْرَأَتِهِ أَكْرِمِي مَثْوَاهُ عَسَى أَنْ يَنفَعَنَا أَوْ نَتَّخِذَهُ وَلَدًا وَكَذَلِكَ مَكَّنَّا لِيُوسُفَ فِي الأَرْضِ وَلِنُعَلِّمَهُ مِنْ تَأْوِيلِ الأَحَادِيثِ وَاللَّهُ غَالِبٌ عَلَى أَمْرِهِ وَلَكِنَّ أَكْثَرَ النَّاسِ لاَ يَعْلَمُونَ(21)</t>
+  </si>
+  <si>
+    <t>فَلَمَّا سَمِعَتْ بِمَكْرِهِنَّ أَرْسَلَتْ إِلَيْهِنَّ وَأَعْتَدَتْ لَهُنَّ مُتَّكَأً وَآتَتْ كُلَّ وَاحِدَةٍ مِنْهُنَّ سِكِّينًا وَقَالَتْ اخْرُجْ عَلَيْهِنَّ فَلَمَّا رَأَيْنَهُ أَكْبَرْنَهُ وَقَطَّعْنَ أَيْدِيَهُنَّ وَقُلْنَ حَاشَ لِلَّهِ مَا هَذَا بَشَرًا إِنْ هَذَا إِلاّ مَلَكٌ كَرِيمٌ(31)</t>
+  </si>
+  <si>
+    <t>وَاتَّبَعْتُ مِلَّةَ آبَآئِي إِبْرَاهِيمَ وَإِسْحَقَ وَيَعْقُوبَ مَا كَانَ لَنَا أَن نُّشْرِكَ بِاللّهِ مِن شَيْءٍ ذَلِكَ مِن فَضْلِ اللّهِ عَلَيْنَا وَعَلَى النَّاسِ وَلَكِنَّ أَكْثَرَ النَّاسِ لاَ يَشْكُرُونَ (38)</t>
+  </si>
+  <si>
+    <t>وَكَذَلِكَ مَكَّنَّا لِيُوسُفَ فِي الأَرْضِ يَتَبَوَّأُ مِنْهَا حَيْثُ يَشَاءُ نُصِيبُ بِرَحْمَتِنَا مَنْ نَشَاءُ وَلاَ نُضِيعُ أَجْرَ الْمُحْسِنِينَ(56)</t>
+  </si>
+  <si>
+    <t>وَقَالَ يَابَنِيَّ لاَ تَدْخُلُوا مِنْ بَابٍ وَاحِدٍ وَادْخُلُوا مِنْ أَبْوَابٍ مُتَفَرِّقَةٍ وَمَا أُغْنِي عَنكُمْ مِنْ اللَّهِ مِنْ شَيْءٍ إِنْ الْحُكْمُ إِلاّ لِلَّهِ عَلَيْهِ تَوَكَّلْتُ وَعَلَيْهِ فَلْيَتَوَكَّلْ الْمُتَوَكِّلُونَ(67)وَلَمَّا دَخَلُوا مِنْ حَيْثُ أَمَرَهُمْ أَبُوهُمْ مَا كَانَ يُغْنِي عَنْهُمْ مِنْ اللَّهِ مِنْ شَيْءٍ إِلاّ حَاجَةً فِي نَفْسِ يَعْقُوبَ قَضَاهَا وَإِنَّهُ لَذُو عِلْمٍ لِمَا عَلَّمْنَاهُ وَلَكِنَّ أَكْثَرَ النَّاسِ لاَ يَعْلَمُونَ(68) وَلَمَّا دَخَلُوا عَلَى يُوسُفَ آوَى إِلَيْهِ أَخَاهُ قَالَ إِنِّي أَنَا أَخُوكَ فَلَا تَبْتَئِسْ بِمَا كَانُوا يَعْمَلُونَ(69)</t>
+  </si>
+  <si>
+    <t>قَالُوا إِنْ يَسْرِقْ فَقَدْ سَرَقَ أَخٌ لَهُ مِنْ قَبْلُ فَأَسَرَّهَا يُوسُفُ فِي نَفْسِهِ وَلَمْ يُبْدِهَا لَهُمْ قَالَ أَنْتُمْ شَرٌّ مَكَانًا وَاللَّهُ أَعْلَمُ بِمَا تَصِفُونَ(77)</t>
+  </si>
+  <si>
+    <t>وَتَوَلَّى عَنْهُمْ وَقَالَ يَاأَسَفَى عَلَى يُوسُفَ وَابْيَضَّتْ عَيْنَاهُ مِنَ الْحُزْنِ فَهُوَ كَظِيمٌ(84)</t>
+  </si>
+  <si>
+    <t>قَالَ هَلْ عَلِمْتُمْ مَا فَعَلْتُمْ بِيُوسُفَ وَأَخِيهِ إِذْ أَنْتُمْ جَاهِلُونَ(89)قَالُوا أَئِنَّكَ لأَنْتَ يُوسُفُ قَالَ أَنَا يُوسُفُ وَهذَا أَخِي قَدْ مَنَّ اللَّهُ عَلَيْنَا إِنَّهُ مَنْ يَتَّقِ وَيَصْبِرْ فَإِنَّ اللَّهَ لاَ يُضِيعُ أَجْرَ الْمُحْسِنِينَ(90)قَالُوا تَاللَّهِ لَقَدْ آثَرَكَ اللَّهُ عَلَيْنَا وَإِنْ كُنَّا لَخَاطِئِينَ(91)قَالَ لاَ تَثْرِيبَ عَلَيْكُمْ الْيَوْمَ يَغْفِرُ اللَّهُ لَكُمْ وَهُوَ أَرْحَمُ الرَّاحِمِينَ(92)اذْهَبُوا بِقَمِيصِي هَذَا فَأَلْقُوهُ عَلَى وَجْهِ أَبِي يَأْتِ بَصِيرًا وَأْتُونِي بِأَهْلِكُمْ أَجْمَعِينَ(93)</t>
+  </si>
+  <si>
+    <t>فَلَمَّا دَخَلُوا عَلَى يُوسُفَ آوَى إِلَيْهِ أَبَوَيْهِ وَقَالَ ادْخُلُوا مِصْرَ إِنْ شَاءَ اللَّهُ آمِنِينَ(99)وَرَفَعَ أَبَوَيْهِ عَلَى الْعَرْشِ وَخَرُّوا لَهُ سُجَّدًا وَقَالَ يَاأَبَتِ هَذَا تَأْوِيلُ رُؤْيَاي مِنْ قَبْلُ قَدْ جَعَلَهَا رَبِّي حَقًّا وَقَدْ أَحْسَنَ بِي إِذْ أَخْرَجَنِي مِنْ السِّجْنِ وَجَاءَ بِكُمْ مِنْ الْبَدْوِ مِنْ بَعْدِ أَنْ نَزَغَ الشَّيْطَانُ بَيْنِي وَبَيْنَ إِخْوَتِي إِنَّ رَبِّي لَطِيفٌ لِمَا يَشَاءُ إِنَّهُ هُوَ الْعَلِيمُ الْحَكِيمُ(100)</t>
+  </si>
+  <si>
+    <t>وَإِن تَعْجَبْ فَعَجَبٌ قَوْلُهُمْ (5)</t>
+  </si>
+  <si>
+    <t>وَنَبِّئْهُمْ عَنْ ضَيْفِ إِبْرَاهِيمَ(51)إِذْ دَخَلُوا عَلَيْهِ فَقَالُوا سَلَامًا قَالَ إِنَّا مِنْكُمْ وَجِلُونَ(52)</t>
+  </si>
+  <si>
+    <t>وَلَقَدْ جَعَلْنَا فِي السَّمَاءِ بُرُوجًا وَزَيَّنَّاهَا لِلنَّاظِرِينَ(16) وَحَفِظْنَاهَا مِنْ كُلِّ شَيْطَانٍ رَجِيمٍ(17) إِلَّا مَنِ اسْتَرَقَ السَّمْعَ فَأَتْبَعَهُ شِهَابٌ مُبِينٌ(18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لاَ تَمُدَّنَّ عَيْنَيْكَ إِلَى مَا مَتَّعْنَا بِهِ أَزْوَاجًا مِنْهُمْ وَلاَ تَحْزَنْ عَلَيْهِمْ وَاخْفِضْ جَنَاحَكَ لِلْمُؤْمِنِينَ(88)</t>
+  </si>
+  <si>
+    <t>وَلَكُمْ فِيهَا جَمَالٌ حِينَ تُرِيحُونَ وَحِينَ تَسْرَحُونَ (6)</t>
+  </si>
+  <si>
+    <t>وَإِن تَعُدُّواْ نِعْمَةَ اللّهِ لاَ تُحْصُوهَا إِنَّ اللّهَ لَغَفُورٌ رَّحِيمٌ (18)</t>
+  </si>
+  <si>
+    <t>وَمَا بِكُم مِّن نِّعْمَةٍ فَمِنَ اللّهِ ثُمَّ إِذَا مَسَّكُمُ الضُّرُّ فَإِلَيْهِ تَجْأَرُونَ (53)</t>
+  </si>
+  <si>
+    <t>وَاللَّهُ فَضَّلَ بَعْضَكُمْ عَلَى بَعْضٍ فِي الرِّزْقِ فَمَا الَّذِينَ فُضِّلُوا بِرَادِّي رِزْقِهِمْ عَلَى مَا مَلَكَتْ أَيْمَانُهُمْ فَهُمْ فِيهِ سَوَاءٌ أَفَبِنِعْمَةِ اللَّهِ يَجْحَدُونَ(71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كُلاّ نُمِدُّ هَؤُلآء وَهَؤُلآءِ مِنْ عَطَاءِ رَبِّكَ وَمَا كَانَ عَطَاءُ رَبِّكَ مَحْظُورًا(20)انظُرْ كَيْفَ فَضَّلْنَا بَعْضَهُمْ عَلَى بَعْضٍ وَلَلآخِرَةُ أَكْبَرُ دَرَجَاتٍ وَأَكْبَرُ تَفْضِيلاً(21)</t>
+  </si>
+  <si>
+    <t>وَإِنْ كَادُوا لَيَسْتَفِزُّونَكَ مِنْ الأَرْضِ لِيُخْرِجُوكَ مِنْهَا وَإِذًا لاَ يَلْبَثُونَ خِلاَفَكَ إِلاّ قَلِيلاً(76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مَّا لَهُم بِهِ مِنْ عِلْمٍ وَلاَ لآِبَائِهِمْ كَبُرَتْ كَلِمَةً تَخْرُجُ مِنْ أَفْوَاهِهِمْ إِن يَقُولُونَ إِلَّا كَذِبًا (5) </t>
+  </si>
+  <si>
+    <t>وَكَذَٰلِكَ بَعَثْنَاهُمْ لِيَتَسَاءَلُوا بَيْنَهُمْ ۚ قَالَ قَائِلٌ مِّنْهُمْ كَمْ لَبِثْتُمْ ۖ قَالُوا لَبِثْنَا يَوْمًا أَوْ بَعْضَ يَوْمٍ ۚ قَالُوا رَبُّكُمْ أَعْلَمُ بِمَا لَبِثْتُمْ فَابْعَثُوا أَحَدَكُم بِوَرِقِكُمْ هَٰذِهِ إِلَى الْمَدِينَةِ فَلْيَنظُرْ أَيُّهَا أَزْكَىٰ طَعَامًا فَلْيَأْتِكُم بِرِزْقٍ مِّنْهُ وَلْيَتَلَطَّفْ وَلَا يُشْعِرَنَّ بِكُمْ أَحَدًا (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَاصْبِرْ نَفْسَكَ مَعَ الَّذِينَ يَدْعُونَ رَبَّهُمْ بِالْغَدَاةِ وَالْعَشِيِّ يُرِيدُونَ وَجْهَهُ وَلاَ تَعْدُ عَيْنَاكَ عَنْهُمْ تُرِيدُ زِينَةَ الْحَيَاةِ الدُّنْيَا وَلاَ تُطِعْ مَنْ أَغْفَلْنَا قَلْبَهُ عَنْ ذِكْرِنَا وَاتَّبَعَ هَوَاهُ وَكَانَ أَمْرُهُ فُرُطًا(28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَدَخَلَ جَنَّتَهُ وَهُوَ ظَالِمٌ لِنَفْسِهِ قَالَ مَا أَظُنُّ أَنْ تَبِيدَ هَذِهِ أَبَدًا(35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَلَوْلاَ إِذْ دَخَلْتَ جَنَّتَكَ قُلْتَ مَا شَاءَ اللَّهُ لاَ قُوَّةَ إِلاّ بِاللَّهِ إِنْ تَرَنِ أَنَا أَقَلَّ مِنْكَ مَالاً وَوَلَدًا(39) فَعَسَى رَبِّي أَنْ يُؤْتِيَنِ خَيْرًا مِنْ جَنَّتِكَ وَيُرْسِلَ عَلَيْهَا حُسْبَانًا مِنْ السَّمَاءِ فَتُصْبِحَ صَعِيدًا زَلَقًا(40)أَوْ يُصْبِحَ مَاؤُهَا غَوْرًا فَلَنْ تَسْتَطِيعَ لَهُ طَلَبًا(41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> الْمَالُ وَالْبَنُونَ زِينَةُ الْحَيَاةِ الدُّنْيَا وَالْبَاقِيَاتُ الصَّالِحَاتُ خَيْرٌ عِنْدَ رَبِّكَ ثَوَابًا وَخَيْرٌ أَمَلاً(46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَأَمَّا الْجِدَارُ فَكَانَ لِغُلَامَيْنِ يَتِيمَيْنِ فِي الْمَدِينَةِ وَكَانَ تَحْتَهُ كَنزٌ لَّهُمَا وَكَانَ أَبُوهُمَا صَالِحًا فَأَرَادَ رَبُّكَ أَنْ يَبْلُغَا أَشُدَّهُمَا وَيَسْتَخْرِجَا كَنزَهُمَا رَحْمَةً مِّن رَّبِّكَ وَمَا فَعَلْتُهُ عَنْ أَمْرِي ذَلِكَ تَأْوِيلُ مَا لَمْ تَسْطِع عَّلَيْهِ صَبْرًا} (82)</t>
+  </si>
+  <si>
+    <t>حَتَّى إِذَا بَلَغَ مَغْرِبَ الشَّمْسِ وَجَدَهَا تَغْرُبُ فِي عَيْنٍ حَمِئَةٍ وَوَجَدَ عِنْدَهَا قَوْمًا قُلْنَا يَاذَا الْقَرْنَيْنِ إِمَّا أَنْ تُعَذِّبَ وَإِمَّا أَنْ تَتَّخِذَ فِيهِمْ حُسْنًا(86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قَالَ مَوْعِدُكُمْ يَوْمُ الزِّينَةِ وَأَن يُحْشَرَ النَّاسُ ضُحًى (59) </t>
+  </si>
+  <si>
+    <t>وَلاَ تَمُدَّنَّ عَيْنَيْكَ إِلَى مَا مَتَّعْنَا بِهِ أَزْوَاجًا مِنْهُمْ زَهْرَةَ الْحَيَاةِ الدُّنيَا لِنَفْتِنَهُمْ فِيهِ وَرِزْقُ رَبِّكَ خَيْرٌ وَأَبْقَى(131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بَلْ نَقْذِفُ بِالْحَقِّ عَلَى الْبَاطِلِ فَيَدْمَغُهُ فَإِذَا هُوَ زَاهِقٌ وَلَكُمْ الْوَيْلُ مِمَّا تَصِفُونَ(18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قَالُوا فَأْتُوا بِهِ عَلَى أَعْيُنِ النَّاسِ لَعَلَّهُمْ يَشْهَدُونَ(61)</t>
+  </si>
+  <si>
+    <t>وَاقْتَرَبَ الْوَعْدُ الْحَقُّ فَإِذَ ا هِيَ شَاخِصَةٌ أَبْصَارُ الَّذِينَ كَفَرُوا يَاوَيْلَنَا قَدْ كُنَّا فِي غَفْلَةٍ مِنْ هَذَا بَلْ كُنَّا ظَالِمِينَ(97)</t>
+  </si>
+  <si>
+    <t>قَالَ رَبِّ احْكُمْ بِالْحَقِّ وَرَبُّنَا الرَّحْمَنُ الْمُسْتَعَانُ عَلَى مَا تَصِفُونَ(112)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مَنْ كَانَ يَظُنُّ أَنْ لَنْ يَنصُرَهُ اللَّهُ فِي الدُّنْيَا وَالآخِرَةِ فَلْيَمْدُدْ بِسَبَبٍ إِلَى السَّمَاءِ ثُمَّ لِيَقْطَعْ فَلْيَنظُرْ هَلْ يُذْهِبَنَّ كَيْدُهُ مَا يَغِيظُ (15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَإِذَا تُتْلَى عَلَيْهِمْ آيَاتُنَا بَيِّنَاتٍ تَعْرِفُ فِي وُجُوهِ الَّذِينَ كَفَرُوا الْمُنْكَرَ يَكَادُونَ يَسْطُونَ بِالَّذِينَ يَتْلُونَ عَلَيْهِمْ آيَاتِنَا قُلْ أَفَأُنَبِّئُكُمْ بِشَرٍّ مِنْ ذَلِكُمْ النَّارُ وَعَدَهَا اللَّهُ الَّذِينَ كَفَرُوا وَبِئْسَ الْمَصِيرُ(72)</t>
+  </si>
+  <si>
+    <t>مَا اتَّخَذَ اللَّهُ مِنْ وَلَدٍ وَمَا كَانَ مَعَهُ مِنْ إِلَهٍ إِذًا لَذَهَبَ كُلُّ إِلَهٍ بِمَا خَلَقَ وَلَعَلاَ بَعْضُهُمْ عَلَى بَعْضٍ سُبْحَانَ اللَّهِ عَمَّا يَصِفُونَ(91)</t>
+  </si>
+  <si>
+    <t>ادْفَعْ بِالَّتِي هِيَ أَحْسَنُ السَّيِّئَةَ نَحْنُ أَعْلَمُ بِمَا يَصِفُونَ(96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قُلْ لِلْمُؤْمِنِينَ يَغُضُّوا مِنْ أَبْصَارِهِمْ وَيَحْفَظُوا فُرُوجَهُمْ ذَلِكَ أَزْكَى لَهُمْ إِنَّ اللَّهَ خَبِيرٌ بِمَا يَصْنَعُونَ(30)وَقُلْ لِلْمُؤْمِنَاتِ يَغْضُضْنَ مِنْ أَبْصَارِهِنَّ وَيَحْفَظْنَ فُرُوجَهُنَّ وَلاَ يُبْدِينَ زِينَتَهُنَّ إِلاّ مَا ظَهَرَ مِنْهَا وَلْيَضْرِبْنَ بِخُمُرِهِنَّ عَلَى جُيُوبِهِنَّ وَلاَ يُبْدِينَ زِينَتَهُنَّ إِلاّ لِبُعُولَتِهِنَّ أَوْ آبَائِهِنَّ أَوْ آبَاءِ بُعُولَتِهِنَّ أَوْ أَبْنَائِهِنَّ أَوْ أَبْنَاءِ بُعُولَتِهِنَّ أَوْ إِخْوَانِهِنَّ أَوْ بَنِي إِخْوَانِهِنَّ أَوْ بَنِي أَخَوَاتِهِنَّ أَوْ نِسَائِهِنَّ أَوْ مَا مَلَكَتْ أَيْمَانُهُنَّ أَوْ التَّابِعِينَ غَيْرِ أُوْلِي الإِرْبَةِ مِنْ الرِّجَالِ أَوْ الطِّفْلِ الَّذِينَ لَمْ يَظْهَرُوا عَلَى عَوْرَاتِ النِّسَاءِ وَلاَ يَضْرِبْنَ بِأَرْجُلِهِنَّ لِيُعْلَمَ مَا يُخْفِينَ مِنْ زِينَتِهِنَّ وَتُوبُوا إِلَى اللَّهِ جَمِيعًا أَيُّهَا الْمُؤْمِنُونَ لَعَلَّكُمْ تُفْلِحُونَ(31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لِيَجْزِيَهُمُ اللَّهُ أَحْسَنَ مَا عَمِلُوا وَيَزِيدَهُم مِّن فَضْلِهِ وَاللَّهُ يَرْزُقُ مَن يَشَاء بِغَيْرِ حِسَابٍ (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَإِذَا رَأَوْكَ إِنْ يَتَّخِذُونَكَ إِلاّ هُزُوًا أَهَذَا الَّذِي بَعَثَ اللَّهُ رَسُولاً(41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَالَّذِينَ يَقُولُونَ رَبَّنَا هَبْ لَنَا مِنْ أَزْوَاجِنَا وَذُرِّيَّاتِنَا قُرَّةَ أَعْيُنٍ وَاجْعَلْنَا لِلْمُتَّقِينَ إِمَامًا(74)</t>
+  </si>
+  <si>
+    <t>الَّذِي يَرَاكَ حِينَ تَقُومُ(218) وَتَقَلُّبَكَ فِي السَّاجِدِينَ(219)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَأَلْقِ عَصَاكَ فَلَمَّا رَآهَا تَهْتَزُّ كَأَنَّهَا جَانٌّ وَلَّى مُدْبِرًا وَلَمْ يُعَقِّبْ يَامُوسَى لاَ تَخَفْ إِنِّي لاَ يَخَافُ لَدَيَّ الْمُرْسَلُونَ(10)</t>
+  </si>
+  <si>
+    <t>وَلَقَدْ آتَيْنَا دَ اودَ وَسُلَيْمَانَ عِلْمًا وَقَالاَ الْحَمْدُ لِلَّهِ الَّذِي فَضَّلَنَا عَلَى كَثِيرٍ مِنْ عِبَادِهِ الْمُؤْمِنِينَ(15)وَوَرِثَ سُلَيْمَانُ دَ اودَ وَقَالَ يَاأَيُّهَا النَّاسُ عُلِّمْنَا مَنطِقَ الطَّيْرِ وَأُوتِينَا مِنْ كُلِّ شَيْءٍ إِنَّ هَذَا لَهُوَ الْفَضْلُ الْمُبـِينُ(16)</t>
+  </si>
+  <si>
+    <t>فَتَبَسَّمَ ضَاحِكًا مِّن قَوْلِهَا وَقَالَ رَبِّ أَوْزِعْنِىٓ أَنْ أَشْكُرَ نِعْمَتَكَ ٱلَّتِىٓ أَنْعَمْتَ عَلَىَّ وَعَلَىٰ وَٰلِدَىَّ وَأَنْ أَعْمَلَ صَٰلِحًا تَرْضَىٰهُ وَأَدْخِلْنِى بِرَحْمَتِكَ فِى عِبَادِكَ ٱلصَّٰلِحِينَ (19)</t>
+  </si>
+  <si>
+    <t>إِنِّي وَجَدتُّ امْرَأَةً تَمْلِكُهُمْ وَأُوتِيَتْ مِن كُلِّ شَيْءٍ وَلَهَا عَرْشٌ عَظِيمٌ (23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قَالَ سَنَنظُرُ أَصَدَقْتَ أَمْ كُنتَ مِنْ الْكَاذِبِينَ(27) اذْهَب بِكِتَابِي هَذَا فَأَلْقِهِ إِلَيْهِمْ ثُمَّ تَوَلَّ عَنْهُمْ فَانظُرْ مَاذَا يَرْجِعُونَ(28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قَالُوا نَحْنُ أُوْلُوا قُوَّةٍ وَأُولُوا بَأْسٍ شَدِيدٍ وَالأَمْرُ إِلَيْكِ فَانظُرِي مَاذَا تَأْمُرِينَ(33)</t>
+  </si>
+  <si>
+    <t>وَإِنِّى مُرْسِلَةٌ إِلَيْهِم بِهَدِيَّةٍۢ فَنَاظِرَةٌۢ بِمَ يَرْجِعُ ٱلْمُرْسَلُونَ (35)</t>
+  </si>
+  <si>
+    <t>قَالَ الَّذِي عِندَهُ عِلْمٌ مِّنَ الْكِتَابِ أَنَا آتِيكَ بِهِ قَبْلَ أَن يَرْتَدَّ إِلَيْكَ طَرْفُكَ فَلَمَّا رَآهُ مُسْتَقِرًّا عِندَهُ قَالَ هَذَا مِن فَضْلِ رَبِّي لِيَبْلُوَنِي أَأَشْكُرُ أَمْ أَكْفُرُ وَمَن شَكَرَ فَإِنَّمَا يَشْكُرُ لِنَفْسِهِ وَمَن كَفَرَ فَإِنَّ رَبِّي غَنِيٌّ كَرِيمٌ} (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> قِيلَ لَهَا ادْخُلِي الصَّرْحَ فَلَمَّا رَأَتْهُ حَسِبَتْهُ لُجَّةً وَكَشَفَتْ عَنْ سَاقَيْهَا قَالَ إِنَّهُ صَرْحٌ مُمَرَّدٌ مِنْ قَوَارِيرَ قَالَتْ رَبِّ إِنِّي ظَلَمْتُ نَفْسِي وَأَسْلَمْتُ مَعَ سُلَيْمَانَ لِلَّهِ رَبِّ الْعَالَمِينَ(44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فَرَدَدْنَاهُ إِلَى أُمِّهِ كَيْ تَقَرَّ عَيْنُهَا وَلاَ تَحْزَنَ وَلِتَعْلَمَ أَنَّ وَعْدَ اللَّهِ حَقٌّ وَلَكِنَّ أَكْثَرَهُمْ لاَ يَعْلَمُونَ(13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَمَا أُوتِيتُمْ مِنْ شَيْءٍ فَمَتَاعُ الْحَيَاةِ الدُّنْيَا وَزِينَتُهَا وَمَا عِنْدَ اللَّهِ خَيْرٌ وَأَبْقَى أَفَلاَ تَعْقِلُونَ(60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> إِنَّ قَارُونَ كَانَ مِن قَوْمِ مُوسَى فَبَغَى عَلَيْهِمْ وَآتَيْنَاهُ مِنَ الْكُنُوزِ مَا إِنَّ مَفَاتِحَهُ لَتَنُوءُ بِالْعُصْبَةِ أُولِي الْقُوَّةِ إِذْ قَالَ لَهُ قَوْمُهُ لَا تَفْرَحْ إِنَّ اللَّهَ لَا يُحِبُّ الْفَرِحِينَ } (76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فَخَرَجَ عَلَى قَوْمِهِ فِي زِينَتِهِ قَالَ الَّذِينَ يُرِيدُونَ الْحَيَاةَ الدُّنيَا يَالَيْتَ لَنَا مِثْلَ مَا أُوتِيَ قَارُونُ إِنَّهُ لَذُو حَظٍّ عَظِيمٍ(79)وَقَالَ الَّذِينَ أُوتُوا الْعِلْمَ وَيْلَكُمْ ثَوَابُ اللَّهِ خَيْرٌ لِمَنْ آمَنَ وَعَمِلَ صَالِحًا وَلاَ يُلَقَّاهَا إِلاّ الصَّابِرُونَ(80)فَخَسَفْنَا بِهِ وَبِدَارِهِ الأَرْضَ فَمَا كَانَ لَهُ مِنْ فِئَةٍ يَنصُرُونَهُ مِنْ دُونِ اللَّهِ وَمَا كَانَ مِنْ المُنْتَصِرِينَ(81) وَأَصْبَحَ الَّذِينَ تَمَنَّوْا مَكَانَهُ بِالأَمْسِ يَقُولُونَ وَيْكَأَنَّ اللَّهَ يَبْسُطُ الرِّزْقَ لِمَنْ يَشَاءُ مِنْ عِبَادِهِ وَيَقْدِرُ لَوْلاَ أَنْ مَنَّ اللَّهُ عَلَيْنَا لَخَسَفَ بِنَا وَيْكَأَنَّهُ لاَ يُفْلِحُ الْكَافِرُونَ(82)تِلْكَ الدَّارُ الآخِرَةُ نَجْعَلُهَا لِلَّذِينَ لاَ يُرِيدُونَ عُلُوًّا فِي الأَرْضِ وَلاَ فَسَاد اً وَالْعَاقِبَةُ لِلْمُتَّقِينَ(83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أَشِحَّةً عَلَيْكُمْ فَإِذَ ا جَاءَ الْخَوْفُ رَأَيْتَهُمْ يَنْظُرُونَ إِلَيْكَ تَدُورُ أَعْيُنُهُمْ كَالَّذِي يُغْشَى عَلَيْهِ مِنْ الْمَوْتِ فَإِذَ ا ذَهَبَ الْخَوْفُ سَلَقُوكُمْ بِأَلْسِنَةٍ حِدَادٍ أَشِحَّةً عَلَى الْخَيْرِ أُوْلَئِكَ لَمْ يُؤْمِنُوا فَأَحْبَطَ اللَّهُ أَعْمَالَهُمْ وَكَانَ ذَلِكَ عَلَى اللَّهِ يَسِيرًا(19)</t>
+  </si>
+  <si>
+    <t>تُرْجِي مَنْ تَشَاءُ مِنْهُنَّ وَتُؤْوِي إِلَيْكَ مَنْ تَشَاءُ وَمَنْ ابْتَغَيْتَ مِمَّنْ عَزَلْتَ فَلاَ جُنَاحَ عَلَيْكَ ذَلِكَ أَدْنَى أَنْ تَقَرَّ أَعْيُنُهُنَّ وَلاَ يَحْزَنَّ وَيَرْضَينَ بِمَا آتَيْتَهُنَّ كُلُّهُنَّ وَاللَّهُ يَعْلَمُ مَا فِي قُلُوبِكُمْ وَكَانَ اللَّهُ عَلِيمًا حَلِيمًا(51)لاَ يَحِلُّ لَكَ النِّسَاءُ مِنْ بَعْدُ وَلاَ أَنْ تَبَدَّلَ بِهِنَّ مِنْ أَزْوَاجٍ وَلَوْ أَعْجَبَكَ حُسْنُهُنَّ إِلاّ مَا مَلَكَتْ يَمِينُكَ وَكَانَ اللَّهُ عَلَى كُلِّ شَيْءٍ رَقِيبًا(52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَجَعَلْنَا مِنْ بَيْنِ أَيْدِيهِمْ سَدًّا وَمِنْ خَلْفِهِمْ سَدًّا فَأَغْشَيْنَاهُمْ فَهُمْ لاَ يُبْصِرُونَ(9)</t>
+  </si>
+  <si>
+    <t>وَلَوْ نَشَاءُ لَطَمَسْنَا عَلَى أَعْيُنِهِمْ فَاسْتَبَقُوا الصِّرَاطَ فَأَنَّى يُبْصِرُونَ(66)</t>
+  </si>
+  <si>
+    <t>فَإِنَّمَا هِيَ زَجْرَةٌ وَاحِدَةٌ فَإِذَا هُمْ يَنظُرُونَ(19)</t>
+  </si>
+  <si>
+    <t>بَيْضَاء لَذَّةٍ لِّلشَّارِبِينَ (46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَلَوْلاَ نِعْمَةُ رَبِّي لَكُنتُ مِنَ الْمُحْضَرِينَ (57)</t>
+  </si>
+  <si>
+    <t>فَنَظَرَ نَظْرَةً فِي النُّجُومِ(88)</t>
+  </si>
+  <si>
+    <t>وَتَوَلَّ عَنْهُمْ حَتَّى حِينٍ(178)وَأَبْصِرْ فَسَوْفَ يُبْصِرُونَ(179)سُبْحَانَ رَبِّكَ رَبِّ الْعِزَّةِ عَمَّا يَصِفُونَ(180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَنُفِخَ فِي الصُّورِ فَصَعِقَ مَنْ فِي السَّمَاوَاتِ وَمَنْ فِي الأَرْضِ إِلاّ مَنْ شَاءَ اللَّهُ ثُمَّ نُفِخَ فِيهِ أُخْرَى فَإِذَا هُمْ قِيَامٌ يَنْظُرُونَ(68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يَعْلَمُ خَائِنَةَ الأَعْيُنِ وَمَا تُخْفِي الصُّدُورُ(19)</t>
+  </si>
+  <si>
+    <t>فَلَمَّا جَاءَهُمْ بِالْحَقِّ مِنْ عِنْدِنَا قَالُوا اقْتُلُوا أَبْنَاءَ الَّذِينَ آمَنُوا مَعَهُ وَاسْتَحْيُوا نِسَاءَهُمْ وَمَا كَيْدُ الْكَافِرِينَ إِلاّ فِي ضَلاَلٍ(25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لَهُ مَقَالِيدُ السَّمَاوَاتِ وَالأَرْضِ يَبْسُطُ الرِّزْقَ لِمَنْ يَشَاءُ وَيَقْدِرُ إِنَّهُ بِكُلِّ شَيْءٍ عَلِيمٌ(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَلَوْ بَسَطَ اللَّهُ الرِّزْقَ لِعِبَادِهِ لَبَغَوْا فِي الأَرْضِ وَلَكِنْ يُنَزِّلُ بِقَدَرٍ مَا يَشَاءُ إِنَّهُ بِعِبَادِهِ خَبِيرٌ بَصِيرٌ(27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَتَرَاهُمْ يُعْرَضُونَ عَلَيْهَا خَاشِعِينَ مِنْ الذُّلِّ يَنْظُرُونَ مِنْ طَرْفٍ خَفِيٍّ وَقَالَ الَّذِينَ آمَنُوا إِنَّ الْخَاسِرِينَ الَّذِينَ خَسِرُوا أَنفُسَهُمْ وَأَهْلِيهِمْ يَوْمَ الْقِيَامَةِ أَلاَ إِنَّ الظَّالِمِينَ فِي عَذَابٍ مُقِيمٍ(45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَقَالُوا لَوْلاَ نُزِّلَ هَذَا الْقُرْآنُ عَلَى رَجُلٍ مِنْ الْقَرْيَتَيْنِ عَظِيمٍ(31)أَهُمْ يَقْسِمُونَ رَحْمَةَ رَبِّكَ نَحْنُ قَسَمْنَا بَيْنَهُمْ مَعِيشَتَهُمْ فِي الْحَيَاةِ الدُّنْيَا وَرَفَعْنَا بَعْضَهُمْ فَوْقَ بَعْضٍ دَرَجَاتٍ لِيَتَّخِذَ بَعْضُهُمْ بَعْضًا سُخْرِيًّا وَرَحْمَةُ رَبِّكَ خَيْرٌ مِمَّا يَجْمَعُونَ(32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يُطَافُ عَلَيْهِمْ بِصِحَافٍ مِنْ ذَهَبٍ وَأَكْوَابٍ وَفِيهَا مَا تَشْتَهِيهِ الأَنفُسُ وَتَلَذُّ الأَعْيُنُ وَأَنْتُمْ فِيهَا خَالِدُونَ(71)</t>
+  </si>
+  <si>
+    <t>أَمْ يَحْسَبُونَ أَنَّا لا نَسْمَعُ سِرَّهُمْ وَنَجْوَاهُمْ بَلَى وَرُسُلُنَا لَدَيْهِمْ يَكْتُبُونَ(80)</t>
+  </si>
+  <si>
+    <t>وَيَقُولُ الَّذِينَ آمَنُوا لَوْلَا نُزِّلَتْ سُورَةٌ فَإِذَا أُنزِلَتْ سُورَةٌ مُحْكَمَةٌ وَذُكِرَ فِيهَا الْقِتَالُ رَأَيْتَ الَّذِينَ فِي قُلُوبِهِمْ مَرَضٌ يَنظُرُونَ إِلَيْكَ نَظَرَ الْمَغْشِيِّ عَلَيْهِ مِنْ الْمَوْتِ فَأَوْلَى لَهُمْ(20)</t>
+  </si>
+  <si>
+    <t>أَمْ حَسِبَ الَّذِينَ فِي قُلُوبِهِمْ مَرَضٌ أَنْ لَنْ يُخْرِجَ اللَّهُ أَضْغَانَهُمْ(29)وَلَوْ نَشَاءُ لأَرَيْنَاكَهُمْ فَلَعَرَفْتَهُمْ بِسِيمَاهُمْ وَلَتَعْرِفَنَّهُمْ فِي لَحْنِ الْقَوْلِ وَاللَّهُ يَعْلَمُ أَعْمَالَكُمْ(30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سَيَقُولُ الْمُخَلَّفُونَ إِذَا انطَلَقْتُمْ إِلَى مَغَانِمَ لِتَأْخُذُوهَا ذَرُونَا نَتَّبِعْكُمْ يُرِيدُونَ أَنْ يُبَدِّلُوا كَلاَمَ اللَّهِ قُلْ لَنْ تَتَّبِعُونَا كَذَلِكُمْ قَالَ اللَّهُ مِنْ قَبْلُ فَسَيَقُولُونَ بَلْ تَحْسُدُونَنَا بَلْ كَانُوا لاَ يَفْقَهُونَ إِلاّ قَلِيلاً(15)</t>
+  </si>
+  <si>
+    <t>يَاأَيُّهَا الَّذِينَ آمَنُوا لاَ يَسْخَرْ قَومٌ مِنْ قَوْمٍ عَسَى أَنْ يَكُونُوا خَيْرًا مِنْهُمْ وَلاَ نِسَاءٌ مِنْ نِسَاءٍ عَسَى أَنْ يَكُنَّ خَيْرًا مِنْهُنَّ وَلاَ تَلْمِزُوا أَنفُسَكُمْ وَلاَ تَنَابَزُوا بِالأَلْقَابِ بِئْسَ الاِسْمُ الْفُسُوقُ بَعْدَ الإِيمَانِ وَمَنْ لَمْ يَتُبْ فَأُوْلَئِكَ هُمْ الظَّالِمُونَ(11)يَاأَيُّهَا الَّذِينَ آمَنُوا اجْتَنِبُوا كَثِيرًا مِنْ الظَّنِّ إِنَّ بَعْضَ الظَّنِّ إِثْمٌ وَلاَ تَجَسَّسُوا وَلاَ يَغْتَبْ بَعْضُكُمْ بَعْضًا أَيُحِبُّ أَحَدُكُمْ أَنْ يَأْكُلَ لَحْمَ أَخِيهِ مَيْتًا فَكَرِهْتُمُوهُ وَاتَّقُوا اللَّهَ إِنَّ اللَّهَ تَوَّابٌ رَحِيمٌ(12)</t>
+  </si>
+  <si>
+    <t>أَفَلَمْ يَنْظُرُوا إِلَى السَّمَاءِ فَوْقَهُمْ كَيْفَ بَنَيْنَاهَا وَزَيَّنَّاهَا وَمَا لَهَا مِنْ فُرُوجٍ(6)</t>
+  </si>
+  <si>
+    <t>فَعَتَوْا عَنْ أَمْرِ رَبِّهِمْ فَأَخَذَتْهُمْ الصَّاعِقَةُ وَهُمْ يَنظُرُونَ(44)</t>
+  </si>
+  <si>
+    <t>وَاصْبِرْ لِحُكْمِ رَبِّكَ فَإِنَّكَ بِأَعْيُنِنَا وَسَبِّحْ بِحَمْدِ رَبِّكَ حِينَ تَقُومُ(48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> خُشَّعًا أَبْصَارُهُمْ يَخْرُجُونَ مِنْ الأَجْدَاثِ كَأَنَّهُمْ جَرَادٌ مُنتَشِرٌ(7)</t>
+  </si>
+  <si>
+    <t>وَفَجَّرْنَا الأَرْضَ عُيُونًا فَالْتَقَى الْمَاءُ عَلَى أَمْرٍ قَدْ قُدِرَ(12)</t>
+  </si>
+  <si>
+    <t>نِعْمَةً مِّنْ عِندِنَا كَذَلِكَ نَجْزِي مَن شَكَرَ (35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَلَقَدْ رَاوَدُوهُ عَنْ ضَيْفِهِ فَطَمَسْنَا أَعْيُنَهُمْ فَذُوقُوا عَذَابِي وَنُذُرِ(37)</t>
+  </si>
+  <si>
+    <t>فَإِذَا انشَقَّتِ السَّمَاء فَكَانَتْ وَرْدَةً كَالدِّهَانِ} (37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فِيهِمَا عَيْنَانِ تَجْرِيَانِ(50)</t>
+  </si>
+  <si>
+    <t>فِيهِنَّ خَيْرَاتٌ حِسَانٌ} (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فَلَوْلاَ إِذَا بَلَغَتْ الْحُلْقُومَ(83) وَأَنْتُمْ حِينَئِذٍ تَنظُرُونَ(84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اعْلَمُوا أَنَّمَا الْحَيَاةُ الدُّنْيَا لَعِبٌ وَلَهْوٌ وَزِينَةٌ وَتَفَاخُرٌ بَيْنَكُمْ وَتَكَاثُرٌ فِي الأَمْوَالِ وَالأَوْلاَدِ كَمَثَلِ غَيْثٍ أَعْجَبَ الْكُفَّارَ نَبَاتُهُ ثُمَّ يَهِيجُ فَتَرَاهُ مُصْفَرًّا ثُمَّ يَكُونُ حُطَامًا وَفِي الآخِرَةِ عَذَابٌ شَدِيدٌ وَمَغْفِرَةٌ مِنْ اللَّهِ وَرِضْوَانٌ وَمَا الْحَيَاةُ الدُّنْيَا إِلاّ مَتَاعُ الْغُرُورِ(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مَا أَصَابَ مِنْ مُصِيبَةٍ فِي الأَرْضِ وَلاَ فِي أَنْفُسِكُمْ إِلاّ فِي كِتَابٍ مِنْ قَبْلِ أَنْ نَبْرَأَهَا إِنَّ ذَلِكَ عَلَى اللَّهِ يَسِيرٌ(22)لِكَيْلاَ تَأْسَوْا عَلَى مَا فَاتَكُمْ وَلاَ تَفْرَحُوا بِمَا آتَاكُمْ وَاللَّهُ لاَ يُحِبُّ كُلَّ مُخْتَالٍ فَخُورٍ(23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لِئَلاَّ يَعْلَمَ أَهْلُ الْكِتَابِ أَلاَّ يَقْدِرُونَ عَلَى شَيْءٍ مِّن فَضْلِ اللَّهِ وَأَنَّ الْفَضْلَ بِيَدِ اللَّهِ يُؤْتِيهِ مَن يَشَاء وَاللَّهُ ذُو الْفَضْلِ الْعَظِيمِ} (29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَالَّذِينَ تَبَوَّءُوا الدَّارَ وَالإِيمَانَ مِنْ قَبْلِهِمْ يُحِبُّونَ مَنْ هَاجَرَ إِلَيْهِمْ وَلاَ يَجِدُونَ فِي صُدُورِهِمْ حَاجَةً مِمَّا أُوتُوا وَيُؤْثِرُونَ عَلَى أَنْفُسِهِمْ وَلَوْ كَانَ بِهِمْ خَصَاصَةٌ وَمَنْ يُوقَ شُحَّ نَفْسِهِ فَأُوْلَئِكَ هُمْ الْمُفْلِحُونَ(9)وَالَّذِينَ جَاءْوا مِنْ بَعْدِهِمْ يَقُولُونَ رَبَّنَا اغْفِرْ لَنَا وَلإِخْوَانِنَا الَّذِينَ سَبَقُونَا بِالإِيمَانِ وَلاَ تَجْعَلْ فِي قُلُوبِنَا غِلاً لِلَّذِينَ آمَنُوا رَبَّنَا إِنَّكَ رَءُوفٌ رَحِيمٌ(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يَاأَيُّهَا الَّذِينَ آمَنُوا اتَّقُوا اللَّهَ وَلْتَنْظُرْ نَفْسٌ مَا قَدَّمَتْ لِغَدٍ وَاتَّقُوا اللَّهَ إِنَّ اللَّهَ خَبِيرٌ بِمَا تَعْمَلُونَ(18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> إِنْ يَثْقَفُوكُمْ يَكُونُوا لَكُمْ أَعْدَاءً وَيَبْسُطُوا إِلَيْكُمْ أَيْدِيَهُمْ وَأَلْسِنَتَهُمْ بِالسُّوءِ وَوَدُّوا لَوْ تَكْفُرُونَ(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَإِذَا رَأَيْتَهُمْ تُعْجِبُكَ أَجْسَامُهُمْ وَإِنْ يَقُولُوا تَسْمَعْ لِقَوْلِهِمْ كَأَنَّهُمْ خُشُبٌ مُسَنَّدَةٌ يَحْسَبُونَ كُلَّ صَيْحَةٍ عَلَيْهِمْ هُمْ الْعَدُوُّ فَاحْذَرْهُمْ قَاتَلَهُمْ اللَّهُ أَنَّى يُؤْفَكُونَ(4)</t>
+  </si>
+  <si>
+    <t>فَارْجِعِ الْبَصَرَ هَلْ تَرَى مِنْ فُطُورٍ(3) ثُمَّ ارْجِعْ الْبَصَرَ كَرَّتَيْنِ يَنقَلِبْ إِلَيْكَ الْبَصَرُ خَاسِئًا وَهُوَ حَسِيرٌ(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فَلَمَّا رَأَوْهُ زُلْفَةً سِيئَتْ وُجُوهُ الَّذِينَ كَفَرُوا وَقِيلَ هَذَا الَّذِي كُنتُمْ بِهِ تَدَّعُونَ(27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَدُّوا لَوْ تُدْهِنُ فَيُدْهِنُونَ(9)وَلاَ تُطِعْ كُلَّ حَلاّفٍ مَهِينٍ(10)هَمَّازٍ مَشَّاءٍ بِنَمِيمٍ(11)مَنَّاعٍ لِلْخَيْرِ مُعْتَدٍ أَثِيمٍ(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فَلَمَّا رَأَوْهَا قَالُوا إِنَّا لَضَالُّونَ (26) بَلْ نَحْنُ مَحْرُومُونَ (27) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ثُمَّ نَظَرَ(21) ثُمَّ عَبَسَ وَبَسَرَ(22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وُجُوهٌ يَوْمَئِذٍ نَاضِرَةٌ(22) إِلَى رَبِّهَا نَاظِرَةٌ(23) وَوُجُوهٌ يَوْمَئِذٍ بَاسِرَةٌ(24)تَظُنُّ أَنْ يُفْعَلَ بِهَا فَاقِرَةٌ(25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> إِنَّا أَنذَرْنَاكُمْ عَذَابًا قَرِيبًا يَوْمَ يَنظُرُ الْمَرْءُ مَا قَدَّمَتْ يَدَاهُ وَيَقُولُ الْكَافِرُ يَا لَيْتَنِي كُنتُ تُرَابًا﴾</t>
+  </si>
+  <si>
+    <t>وَيَطُوفُ عَلَيْهِمْ وِلْدَانٌ مُخَلَّدُونَ إِذَا رَأَيْتَهُمْ حَسِبْتَهُمْ لُؤْلُؤًا مَنثُورًا(19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كَأَنَّهُمْ يَوْمَ يَرَوْنَهَا لَمْ يَلْبَثُوا إِلاّ عَشِيَّةً أَوْ ضُحَاهَا(46)</t>
+  </si>
+  <si>
+    <t>فَلْيَنْظُرْ الإنسَانُ إِلَى طَعَامِهِ(24)</t>
+  </si>
+  <si>
+    <t>وَيَنقَلِبُ إِلَى أَهْلِهِ مَسْرُورًا (9)</t>
+  </si>
+  <si>
+    <t>إِنَّهُ كَانَ فِي أَهْلِهِ مَسْرُورًا (13)</t>
+  </si>
+  <si>
+    <t>فِيهَا عَيْنٌ جَارِيَةٌ(12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فَأَمَّا الإِنسَانُ إِذَ ا مَا ابْتَلاَهُ رَبُّهُ فَأَكْرَمَهُ وَنَعَّمَهُ فَيَقُولُ رَبِّي أَكْرَمَنِ(15)وَأَمَّا إِذَ ا مَا ابْتَلاَهُ فَقَدَرَ عَلَيْهِ رِزْقَهُ فَيَقُولُ رَبِّي أَهَانَنِ(16)</t>
+  </si>
+  <si>
+    <t>أَيَحْسَبُ أَنْ لَمْ يَرَهُ أَحَدٌ(7)أَلَمْ نَجْعَلْ لَهُ عَيْنَيْنِ(8)وَلِسَانًا وَشَفَتَيْنِ(9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وَنَفْسٍ وَمَا سَوَّاهَا(7)فَأَلْهَمَهَا فُجُورَهَا وَتَقْوَاهَا(8)قَدْ أَفْلَحَ مَنْ زَكَّاهَا(9)وَقَدْ خَابَ مَنْ دَسَّاهَا(10)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. وَالضُّحَى(1)وَاللَّيْلِ إِذَا سَجَى(2)مَا وَدَّعَكَ رَبُّكَ وَمَا قَلَى(3)وَللآخِرَةُ خَيْرٌ لَكَ مِنْ الأُولَى(4)وَلَسَوْفَ يُعْطِيكَ رَبُّكَ فَتَرْضَى(5)أَلَمْ يَجِدْكَ يَتِيمًا فَآوَى(6)وَوَجَدَكَ ضَآلاً فَهَدَى(7)وَوَجَدَكَ عَائِلاً فَأَغْنَى(8)فَأَمَّا الْيَتِيمَ فَلاَ تَقْهَرْ(9)وَأَمَّا السَّائِلَ فَلاَ تَنْهَرْ(10)وَأَمَّا بِنِعْمَةِ رَبِّكَ فَحَدِّثْ(11)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. وَيْلٌ لِكُلِّ هُمَزَةٍ لُمَزَةٍ (1)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. إِنَّا أَعْطَيْنَاكَ الْكَوْثَرَ(1)فَصَلِّ لِرَبِّكَ وَانْحَرْ(2)إِنَّ شَانِئَكَ هُوَ الأَبْتَرُ(3)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. إِذَ ا جَاءَ نَصْرُ اللَّهِ وَالْفَتْحُ(1)وَرَأَيْتَ النَّاسَ يَدْخُلُونَ فِي دِينِ اللَّهِ أَفْوَاجًا(2)فَسَبِّحْ بِحَمْدِ رَبِّكَ وَاسْتَغْفِرْهُ إِنَّهُ كَانَ تَوَّابًا(3)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. تَبَّتْ يَدَا أَبِي لَهَبٍ وَتَبَّ(1)مَا أَغْنَى عَنْهُ مَالُهُ وَمَا كَسَبَ(2)سَيَصْلَى نَارًا ذَ اتَ لَهَبٍ(3)وَامْرَأَتُهُ حَمَّالَةَ الْحَطَبِ(4)فِي جِيدِهَا حَبْلٌ مِنْ مَسَدٍ(5)</t>
+  </si>
+  <si>
+    <t>(بسم الله الرحمن الرحيم. قُلْ هُوَ اللَّهُ أَحَدٌ(1)اللَّهُ الصَّمَدُ(2) لَمْ يَلِدْ وَلَمْ يُولَدْ(3) وَلَمْ يَكُنْ لَهُ كُفُوًا أَحَد ٌ(4)</t>
+  </si>
+  <si>
+    <t>بسم الله الرحمن الرحيم. قُلْ أَعُوذُ بِرَبِّ النَّاسِ(1)مَلِكِ النَّاسِ(2)إِلَهِ النَّاسِ(3)مِنْ شَرِّ الْوَسْوَاسِ الْخَنَّاسِ(4)الَّذِي يُوَسْوِسُ فِي صُدُورِ النَّاسِ(5)مِنْ الْجِنَّةِ وَالنَّاسِ(6)</t>
+  </si>
+  <si>
+    <t>সূরা আ'রাফ:১৯৫</t>
+  </si>
+  <si>
+    <t>bodnojorL</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ ১০৫</t>
+  </si>
+  <si>
+    <t>مَّا يَوَدُّ الَّذِينَ كَفَرُوا مِنْ أَهْلِ الْكِتَابِ وَلَا الْمُشْرِكِينَ أَن يُنَزَّلَ عَلَيْكُم مِّنْ خَيْرٍ مِّن رَّبِّكُمْ ۗ وَاللَّهُ يَخْتَصُّ بِرَحْمَتِهِ مَن يَشَاءُ ۚ وَاللَّهُ ذُو الْفَضْلِ الْعَظِيمِ (105)</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ ১০৯</t>
+  </si>
+  <si>
+    <t>وَدَّ كَثِيرٌ مِنْ أَهْلِ الْكِتَابِ لَوْ يَرُدُّونَكُمْ مِنْ بَعْدِ إِيمَانِكُمْ كُفَّارًا حَسَدًا مِنْ عِنْدِ أَنْفُسِهِمْ مِنْ بَعْدِ مَا تَبَيَّنَ لَهُمُ الْحَقُّ ۖ فَاعْفُوا وَاصْفَحُوا حَتَّىٰ يَأْتِيَ اللَّهُ بِأَمْرِهِ ۗ إِنَّ اللَّهَ عَلَىٰ كُلِّ شَيْءٍ قَدِيرٌ ( 109)</t>
+  </si>
+  <si>
+    <t>সূরা আল ইমরান ১২০</t>
+  </si>
+  <si>
+    <t>إِن تَمْسَسْكُمْ حَسَنَةٌ تَسُؤْهُمْ وَإِن تُصِبْكُمْ سَيِّئَةٌ يَفْرَحُوا بِهَا ۖ وَإِن تَصْبِرُوا وَتَتَّقُوا لَا يَضُرُّكُمْ كَيْدُهُمْ شَيْئًا ۗ إِنَّ اللَّهَ بِمَا يَعْمَلُونَ مُحِيطٌ (120)</t>
+  </si>
+  <si>
+    <t>সূরা নিসা ৩২</t>
+  </si>
+  <si>
+    <t>وَلَا تَتَمَنَّوْا مَا فَضَّلَ اللَّهُ بِهِ بَعْضَكُمْ عَلَىٰ بَعْضٍ ۚ لِّلرِّجَالِ نَصِيبٌ مِّمَّا اكْتَسَبُوا ۖ وَلِلنِّسَاءِ نَصِيبٌ مِّمَّا اكْتَسَبْنَ ۚ وَاسْأَلُوا اللَّهَ مِن فَضْلِهِ ۗ إِنَّ اللَّهَ كَانَ بِكُلِّ شَيْءٍ عَلِيمًا (32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা নিসা 54 </t>
+  </si>
+  <si>
+    <t>أَمْ يَحْسُدُونَ النَّاسَ عَلَىٰ مَا آتَاهُمُ اللَّهُ مِن فَضْلِهِ ۖ فَقَدْ آتَيْنَا آلَ إِبْرَاهِيمَ الْكِتَابَ وَالْحِكْمَةَ وَآتَيْنَاهُم مُّلْكًا عَظِيمًا ( 54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা কাহাফ 39 </t>
+  </si>
+  <si>
+    <t>وَلَوْلَا إِذْ دَخَلْتَ جَنَّتَكَ قُلْتَ مَا شَاءَ اللَّهُ لَا قُوَّةَ إِلَّا بِاللَّهِ ۚ إِن تَرَنِ أَنَا أَقَلَّ مِنكَ مَالًا وَوَلَدًا (39)</t>
+  </si>
+  <si>
+    <t>সূরা ত্বা-হা ১৩১</t>
+  </si>
+  <si>
+    <t>وَلَا تَمُدَّنَّ عَيْنَيْكَ إِلَىٰ مَا مَتَّعْنَا بِهِۦٓ أَزْوَٰجًا مِّنْهُمْ زَهْرَةَ ٱلْحَيَوٰةِ ٱلدُّنْيَا لِنَفْتِنَهُمْ فِيهِ ۚ وَرِزْقُ رَبِّكَ خَيْرٌ وَأَبْقَىٰ (131)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা আল ফাতহ্ 15 </t>
+  </si>
+  <si>
+    <t>سَيَقُولُ الْمُخَلَّفُونَ إِذَا انطَلَقْتُمْ إِلَىٰ مَغَانِمَ لِتَأْخُذُوهَا ذَرُونَا نَتَّبِعْكُمْ ۖ يُرِيدُونَ أَن يُبَدِّلُوا كَلَامَ اللَّهِ ۚ قُل لَّن تَتَّبِعُونَا كَذَٰلِكُمْ قَالَ اللَّهُ مِن قَبْلُ ۖ فَسَيَقُولُونَ بَلْ تَحْسُدُونَنَا ۚ بَلْ كَانُوا لَا يَفْقَهُونَ إِلَّا قَلِيلًا (15)</t>
+  </si>
+  <si>
+    <t>সূরা মুলক ৩-৪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সূরা আল ক্বলম 51 </t>
+  </si>
+  <si>
+    <t>সূরা ফালাক</t>
+  </si>
+  <si>
+    <t>فَٱرۡجِعِ ٱلۡبَصَرَ هَلۡ تَرَىٰ مِن فُطُورࣲ ۝٣ ثُمَّ ٱرۡجِعِ ٱلۡبَصَرَ كَرَّتَیۡنِ یَنقَلِبۡ إِلَیۡكَ ٱلۡبَصَرُ خَاسِئࣰا وَهُوَ حَسِیرࣱ ۝٤</t>
+  </si>
+  <si>
+    <t>وَإِن يَكَادُ الَّذِينَ كَفَرُوا لَيُزْلِقُونَكَ بِأَبْصَارِهِمْ لَمَّا سَمِعُوا الذِّكْرَ وَيَقُولُونَ إِنَّهُ لَمَجْنُونٌ﴾</t>
+  </si>
+  <si>
+    <t>قُلۡ أَعُوذُ بِرَبِّ ٱلۡفَلَقِ (1) مِن شَرِّ مَا خَلَقَ (2) وَمِن شَرِّ غَاسِقٍ إِذَا وَقَبَ (3) وَمِن شَرِّ ٱلنَّفَّٰثَٰتِ فِي ٱلۡعُقَدِ (4) وَمِن شَرِّ حَاسِدٍ إِذَا حَسَدَ (5)</t>
+  </si>
+  <si>
+    <t>hasad</t>
+  </si>
+  <si>
+    <t>সূরা বাকারাহ ১০২</t>
+  </si>
+  <si>
+    <t>সুরা আ'রাফ ১১৭-১২২ নং আয়াত</t>
+  </si>
+  <si>
+    <t>ইউনুস ৮১-৮২ নং আয়াত</t>
+  </si>
+  <si>
+    <t>সুরা ত্বহা ৬৯ নং আয়াত</t>
+  </si>
+  <si>
+    <t>সূরা শুআরা: ৪৩-৪৮</t>
+  </si>
+  <si>
+    <t>সূরা ইখলাস</t>
+  </si>
+  <si>
+    <t>সূরা নাস-</t>
+  </si>
+  <si>
+    <t>وَاتَّبَعُوا مَا تَتْلُو الشَّيَاطِينُ عَلَى مُلْكِ سُلَيْمَانَ وَمَا كَفَرَ سُلَيْمَانُ وَلَكِنَّ الشَّيَاطِينَ كَفَرُوا يُعَلِّمُونَ النَّاسَ السِّحْرَ وَمَـا أُنزِلَ عَلَى الْمَلَكَيْنِ بِبَابِلَ هَارُوتَ وَمَارُوتَ</t>
+  </si>
+  <si>
+    <t>وَأَوْحَيْنَا إِلَىٰ مُوسَىٰ أَنْ أَلْقِ عَصَاكَ ۖ فَإِذَا هِيَ تَلْقَفُ مَا يَأْفِكُونَ - فَوَقَعَ الْحَقُّ وَبَطَلَ مَا كَانُوا يَعْمَلُونَ - فَغُلِبُوا هُنَالِكَ وَانقَلَبُوا صَاغِرِينَ - وَأُلْقِيَ السَّحَرَةُ سَاجِدِينَ -قَالُوا آمَنَّا بِرَبِّ الْعَالَمِينَ - رَبِّ مُوسَىٰ وَهَارُونَ -</t>
+  </si>
+  <si>
+    <t>فَلَمَّا أَلْقَوْا قَالَ مُوسَىٰ مَا جِئْتُم بِهِ السِّحْرُ ۖ إِنَّ اللَّهَ سَيُبْطِلُهُ ۖ إِنَّ اللَّهَ لَا يُصْلِحُ عَمَلَ الْمُفْسِدِينَ - وَيُحِقُّ اللَّهُ الْحَقَّ بِكَلِمَاتِهِ وَلَوْ كَرِهَ الْمُجْرِمُونَ -</t>
+  </si>
+  <si>
+    <t>وَأَلْقِ مَا فِي يَمِينِكَ تَلْقَفْ مَا صَنَعُوا ۖ إِنَّمَا صَنَعُوا كَيْدُ سَاحِرٍ ۖ وَلَا يُفْلِحُ السَّاحِرُ حَيْثُ أَتَىٰ -</t>
+  </si>
+  <si>
+    <t>قُلْ هُوَ اللَّهُ أَحَدٌ - اللَّهُ الصَّمَدُ - لَمْ يَلِدْ وَلَمْ يُولَدْ - وَلَمْ يَكُن لَّهُ كُفُوًا أَحَدٌ</t>
+  </si>
+  <si>
+    <t>قُلْ أَعُوذُ بِرَ‌بِّ الْفَلَقِ ، مِنۡ شَرِّ مَا خَلَقَ ۙ وَمِن شَرِّ‌ غَاسِقٍ إِذَا وَقَبَ ، وَمِن شَرِّ‌ النَّفَّاثَاتِ فِي الْعُقَدِ ، وَمِن شَرِّ‌ حَاسِدٍ إِذَا حَسَدَ</t>
+  </si>
+  <si>
+    <t>قُلْ أَعُوذُ بِرَبِّ النَّاسِ ، مَلِكِ النَّاسِ ، إِلَهِ النَّاسِ ۙ مِن شَرِّ الْوَسْوَاسِ الْخَنَّاسِ ، الَّذِي يُوَسْوِسُ فِي صُدُورِ النَّاسِ ، مِنَ الْجِنَّةِ وَ النَّاسِ</t>
+  </si>
+  <si>
+    <t>sihr</t>
   </si>
 </sst>
 </file>
@@ -723,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD0BE4B-EDDC-49E8-9AFE-E1B9383EDFEE}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,6 +2511,2206 @@
         <v>83</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>306</v>
+      </c>
+      <c r="C74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>311</v>
+      </c>
+      <c r="C80" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" t="s">
+        <v>320</v>
+      </c>
+      <c r="C90" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>462</v>
+      </c>
+      <c r="B97" t="s">
+        <v>327</v>
+      </c>
+      <c r="C97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" t="s">
+        <v>333</v>
+      </c>
+      <c r="C103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B106" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>165</v>
+      </c>
+      <c r="B107" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" t="s">
+        <v>337</v>
+      </c>
+      <c r="C108" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" t="s">
+        <v>341</v>
+      </c>
+      <c r="C112" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
+        <v>344</v>
+      </c>
+      <c r="C115" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" t="s">
+        <v>347</v>
+      </c>
+      <c r="C118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>351</v>
+      </c>
+      <c r="C122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" t="s">
+        <v>353</v>
+      </c>
+      <c r="C124" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>183</v>
+      </c>
+      <c r="B125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" t="s">
+        <v>355</v>
+      </c>
+      <c r="C126" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" t="s">
+        <v>359</v>
+      </c>
+      <c r="C130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>189</v>
+      </c>
+      <c r="B131" t="s">
+        <v>360</v>
+      </c>
+      <c r="C131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>191</v>
+      </c>
+      <c r="B133" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>192</v>
+      </c>
+      <c r="B134" t="s">
+        <v>363</v>
+      </c>
+      <c r="C134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>193</v>
+      </c>
+      <c r="B135" t="s">
+        <v>364</v>
+      </c>
+      <c r="C135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>196</v>
+      </c>
+      <c r="B138" t="s">
+        <v>367</v>
+      </c>
+      <c r="C138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>368</v>
+      </c>
+      <c r="C139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140" t="s">
+        <v>369</v>
+      </c>
+      <c r="C140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>199</v>
+      </c>
+      <c r="B141" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" t="s">
+        <v>371</v>
+      </c>
+      <c r="C142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>373</v>
+      </c>
+      <c r="C144" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146" t="s">
+        <v>375</v>
+      </c>
+      <c r="C146" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" t="s">
+        <v>376</v>
+      </c>
+      <c r="C147" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151" t="s">
+        <v>380</v>
+      </c>
+      <c r="C151" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152" t="s">
+        <v>381</v>
+      </c>
+      <c r="C152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B153" t="s">
+        <v>382</v>
+      </c>
+      <c r="C153" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>212</v>
+      </c>
+      <c r="B154" t="s">
+        <v>383</v>
+      </c>
+      <c r="C154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155" t="s">
+        <v>384</v>
+      </c>
+      <c r="C155" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>214</v>
+      </c>
+      <c r="B156" t="s">
+        <v>385</v>
+      </c>
+      <c r="C156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>215</v>
+      </c>
+      <c r="B157" t="s">
+        <v>386</v>
+      </c>
+      <c r="C157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158" t="s">
+        <v>387</v>
+      </c>
+      <c r="C158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" t="s">
+        <v>388</v>
+      </c>
+      <c r="C159" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" t="s">
+        <v>389</v>
+      </c>
+      <c r="C160" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161" t="s">
+        <v>390</v>
+      </c>
+      <c r="C161" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162" t="s">
+        <v>391</v>
+      </c>
+      <c r="C162" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163" t="s">
+        <v>392</v>
+      </c>
+      <c r="C163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>393</v>
+      </c>
+      <c r="C164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>223</v>
+      </c>
+      <c r="B165" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>395</v>
+      </c>
+      <c r="C166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>396</v>
+      </c>
+      <c r="C167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>397</v>
+      </c>
+      <c r="C168" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>227</v>
+      </c>
+      <c r="B169" t="s">
+        <v>398</v>
+      </c>
+      <c r="C169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>228</v>
+      </c>
+      <c r="B170" t="s">
+        <v>399</v>
+      </c>
+      <c r="C170" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>229</v>
+      </c>
+      <c r="B171" t="s">
+        <v>400</v>
+      </c>
+      <c r="C171" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>230</v>
+      </c>
+      <c r="B172" t="s">
+        <v>401</v>
+      </c>
+      <c r="C172" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173" t="s">
+        <v>402</v>
+      </c>
+      <c r="C173" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175" t="s">
+        <v>404</v>
+      </c>
+      <c r="C175" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>234</v>
+      </c>
+      <c r="B176" t="s">
+        <v>405</v>
+      </c>
+      <c r="C176" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" t="s">
+        <v>406</v>
+      </c>
+      <c r="C177" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>236</v>
+      </c>
+      <c r="B178" t="s">
+        <v>407</v>
+      </c>
+      <c r="C178" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>237</v>
+      </c>
+      <c r="B179" t="s">
+        <v>408</v>
+      </c>
+      <c r="C179" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180" t="s">
+        <v>409</v>
+      </c>
+      <c r="C180" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>239</v>
+      </c>
+      <c r="B181" t="s">
+        <v>410</v>
+      </c>
+      <c r="C181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>240</v>
+      </c>
+      <c r="B182" t="s">
+        <v>411</v>
+      </c>
+      <c r="C182" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B183" t="s">
+        <v>412</v>
+      </c>
+      <c r="C183" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B184" t="s">
+        <v>413</v>
+      </c>
+      <c r="C184" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185" t="s">
+        <v>414</v>
+      </c>
+      <c r="C185" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+      <c r="B186" t="s">
+        <v>415</v>
+      </c>
+      <c r="C186" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>245</v>
+      </c>
+      <c r="B187" t="s">
+        <v>416</v>
+      </c>
+      <c r="C187" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>246</v>
+      </c>
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>247</v>
+      </c>
+      <c r="B189" t="s">
+        <v>418</v>
+      </c>
+      <c r="C189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>248</v>
+      </c>
+      <c r="B190" t="s">
+        <v>419</v>
+      </c>
+      <c r="C190" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191" t="s">
+        <v>420</v>
+      </c>
+      <c r="C191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192" t="s">
+        <v>421</v>
+      </c>
+      <c r="C192" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" t="s">
+        <v>422</v>
+      </c>
+      <c r="C193" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>252</v>
+      </c>
+      <c r="B194" t="s">
+        <v>423</v>
+      </c>
+      <c r="C194" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>253</v>
+      </c>
+      <c r="B195" t="s">
+        <v>424</v>
+      </c>
+      <c r="C195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>254</v>
+      </c>
+      <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197" t="s">
+        <v>426</v>
+      </c>
+      <c r="C197" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" t="s">
+        <v>427</v>
+      </c>
+      <c r="C198" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>257</v>
+      </c>
+      <c r="B199" t="s">
+        <v>428</v>
+      </c>
+      <c r="C199" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" t="s">
+        <v>430</v>
+      </c>
+      <c r="C201" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203" t="s">
+        <v>432</v>
+      </c>
+      <c r="C203" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204" t="s">
+        <v>433</v>
+      </c>
+      <c r="C204" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205" t="s">
+        <v>434</v>
+      </c>
+      <c r="C205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" t="s">
+        <v>436</v>
+      </c>
+      <c r="C207" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208" t="s">
+        <v>437</v>
+      </c>
+      <c r="C208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209" t="s">
+        <v>438</v>
+      </c>
+      <c r="C209" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B210" t="s">
+        <v>439</v>
+      </c>
+      <c r="C210" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>269</v>
+      </c>
+      <c r="B211" t="s">
+        <v>440</v>
+      </c>
+      <c r="C211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212" t="s">
+        <v>441</v>
+      </c>
+      <c r="C212" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>271</v>
+      </c>
+      <c r="B213" t="s">
+        <v>442</v>
+      </c>
+      <c r="C213" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>272</v>
+      </c>
+      <c r="B214" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>273</v>
+      </c>
+      <c r="B215" t="s">
+        <v>443</v>
+      </c>
+      <c r="C215" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>274</v>
+      </c>
+      <c r="B216" t="s">
+        <v>444</v>
+      </c>
+      <c r="C216" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" t="s">
+        <v>445</v>
+      </c>
+      <c r="C217" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>276</v>
+      </c>
+      <c r="B218" t="s">
+        <v>446</v>
+      </c>
+      <c r="C218" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>277</v>
+      </c>
+      <c r="B219" t="s">
+        <v>447</v>
+      </c>
+      <c r="C219" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>278</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>279</v>
+      </c>
+      <c r="B221" t="s">
+        <v>449</v>
+      </c>
+      <c r="C221" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" t="s">
+        <v>450</v>
+      </c>
+      <c r="C222" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>281</v>
+      </c>
+      <c r="B223" t="s">
+        <v>451</v>
+      </c>
+      <c r="C223" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>282</v>
+      </c>
+      <c r="B224" t="s">
+        <v>452</v>
+      </c>
+      <c r="C224" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>283</v>
+      </c>
+      <c r="B225" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>284</v>
+      </c>
+      <c r="B226" t="s">
+        <v>454</v>
+      </c>
+      <c r="C226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>285</v>
+      </c>
+      <c r="B227" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" t="s">
+        <v>456</v>
+      </c>
+      <c r="C228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>287</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230" t="s">
+        <v>458</v>
+      </c>
+      <c r="C230" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>289</v>
+      </c>
+      <c r="B231" t="s">
+        <v>459</v>
+      </c>
+      <c r="C231" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>290</v>
+      </c>
+      <c r="B232" t="s">
+        <v>460</v>
+      </c>
+      <c r="C232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>291</v>
+      </c>
+      <c r="B233" t="s">
+        <v>61</v>
+      </c>
+      <c r="C233" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>292</v>
+      </c>
+      <c r="B234" t="s">
+        <v>461</v>
+      </c>
+      <c r="C234" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" t="s">
+        <v>465</v>
+      </c>
+      <c r="C235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" t="s">
+        <v>467</v>
+      </c>
+      <c r="C236" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" t="s">
+        <v>469</v>
+      </c>
+      <c r="C237" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>477</v>
+      </c>
+      <c r="C241" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>478</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+      <c r="C242" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>480</v>
+      </c>
+      <c r="B243" t="s">
+        <v>483</v>
+      </c>
+      <c r="C243" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>481</v>
+      </c>
+      <c r="B244" t="s">
+        <v>484</v>
+      </c>
+      <c r="C244" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>482</v>
+      </c>
+      <c r="B245" t="s">
+        <v>485</v>
+      </c>
+      <c r="C245" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>108</v>
+      </c>
+      <c r="B246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>487</v>
+      </c>
+      <c r="B247" t="s">
+        <v>494</v>
+      </c>
+      <c r="C247" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>488</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+      <c r="C248" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>489</v>
+      </c>
+      <c r="B249" t="s">
+        <v>496</v>
+      </c>
+      <c r="C249" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" t="s">
+        <v>497</v>
+      </c>
+      <c r="C250" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>491</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>492</v>
+      </c>
+      <c r="B252" t="s">
+        <v>498</v>
+      </c>
+      <c r="C252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>482</v>
+      </c>
+      <c r="B253" t="s">
+        <v>499</v>
+      </c>
+      <c r="C253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>493</v>
+      </c>
+      <c r="B254" t="s">
+        <v>500</v>
+      </c>
+      <c r="C254" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
